--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_47.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_47.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t>STR</t>
   </si>
@@ -135,21 +135,184 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jerry68bis</t>
-  </si>
-  <si>
-    <t>04/07/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r609712178-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40198</t>
+  </si>
+  <si>
+    <t>8542944</t>
+  </si>
+  <si>
+    <t>609712178</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Top Notch &amp; Great Service:</t>
+  </si>
+  <si>
+    <t>Extremely friendly and helpful desk clerks. Stayed on 16th floor (very top floor). Room is comfortable and spacious. Bathroom is a bit small. No refrigerator. Beds are comfy. Beautiful view of Lake Pontchartrain. Quiet, relaxing atmosphere. Lobby is enormous, well decorated and clean. Carpeting in great shape. Smells and looks clean! Pay as you go fitness center with indoor 4’ 3” deep pool and a very hot dry sauna. Valet Parking very reasonable. If you are coming for business or playtime it’s worth the drive or taxi price into the French Quarter &amp; Magazine Street. Front desk recommended, “Chef Ron’s Gumbo” and OMG we tried it our first night and we’ll be going back there tomorrow. Valet service was quick and valets were very courteous and friendly. Check in was simple. Loved the extra security in elevator, we had to use our room keys to activate the elevators. We will stay here on our next trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Extremely friendly and helpful desk clerks. Stayed on 16th floor (very top floor). Room is comfortable and spacious. Bathroom is a bit small. No refrigerator. Beds are comfy. Beautiful view of Lake Pontchartrain. Quiet, relaxing atmosphere. Lobby is enormous, well decorated and clean. Carpeting in great shape. Smells and looks clean! Pay as you go fitness center with indoor 4’ 3” deep pool and a very hot dry sauna. Valet Parking very reasonable. If you are coming for business or playtime it’s worth the drive or taxi price into the French Quarter &amp; Magazine Street. Front desk recommended, “Chef Ron’s Gumbo” and OMG we tried it our first night and we’ll be going back there tomorrow. Valet service was quick and valets were very courteous and friendly. Check in was simple. Loved the extra security in elevator, we had to use our room keys to activate the elevators. We will stay here on our next trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r603145031-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>603145031</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend Getaway </t>
+  </si>
+  <si>
+    <t>Checked in for a family weekend getaway. Great location. Seems like a safe area so no security concerns. Rented a suite for 5 and they only issue 3 towels in the bathroom so we had to request more. The Bistro bar is way overpriced but there is an IHOP nearby for breakfast. The staff was unprofessional. I witnessed a maintenance person arguing on a radio with another staff member in the lobby in front of customers. Nobody at the front desk ever seemed to smile or seemed happy to be there. Rooms were clean and AC worked so it wasn’t too bad. Just an average hotel. I was a little disappointed for what I paid. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Checked in for a family weekend getaway. Great location. Seems like a safe area so no security concerns. Rented a suite for 5 and they only issue 3 towels in the bathroom so we had to request more. The Bistro bar is way overpriced but there is an IHOP nearby for breakfast. The staff was unprofessional. I witnessed a maintenance person arguing on a radio with another staff member in the lobby in front of customers. Nobody at the front desk ever seemed to smile or seemed happy to be there. Rooms were clean and AC worked so it wasn’t too bad. Just an average hotel. I was a little disappointed for what I paid. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r602694708-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>602694708</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Great Option for NOLA</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this Courtyard. We were in town for Mardi Gras and couldn't get into another hotel closer to the French Quarter. In any case, the hotel was clean and looked to be fairly new with modern features, and the staff members were professional, yet friendly, and provided great information on events happening in NOLA. The hotel is close to shopping and restaurants are a very short drive. The only issue I had during my stay was Ubering back and forth to the French Quarter. As you can imagine, during Mardi Gras, this gets to be quite expensive. However, although you can cheaply rent a car, parking then becomes your biggest obstacle. That said, I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this Courtyard. We were in town for Mardi Gras and couldn't get into another hotel closer to the French Quarter. In any case, the hotel was clean and looked to be fairly new with modern features, and the staff members were professional, yet friendly, and provided great information on events happening in NOLA. The hotel is close to shopping and restaurants are a very short drive. The only issue I had during my stay was Ubering back and forth to the French Quarter. As you can imagine, during Mardi Gras, this gets to be quite expensive. However, although you can cheaply rent a car, parking then becomes your biggest obstacle. That said, I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r597755148-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>597755148</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>A little gem in the middle of the road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked this hotel on our way to Houston and it was a very nice surprise after a long day on the road. The lobby area is divided by the counter/check in on the left and bar/cafe on the right. At the end of the lobby you can find computers and a TV/movie theater area. The gym and indoor pool are at the end of the first floor. The room was amazing! It had an area with a microwave, fridge, and coffee machine.Service at the bar was great and you must try the quesadillas! </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r596256704-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596256704</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very easy checkin. Friendly, greeted with a smile and very helpful. Very clean, nice new hotel. Great location for what we needed for overnight stay for cruise. Price was average in comparison with other hotels. Will stay again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r594356665-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594356665</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Close to French Quarter..
+Essence Festival Stay</t>
+  </si>
+  <si>
+    <t>Pros: Hotel was great. It was very clean and the beds were so comfortable. The check in was great I forgot his name but he was very accommodating to me. I asked to change the King to a Double since it was 3 of us and he made this change. I had called eariler and the lady who answered the phone didn't even check and told me no, so he really did great. Very close to the French Quarter it was about 6 to 8 mins away. We got deal by using Hotwire.Cons:The ac needed a battery in the room and I called the front desk but no one ever came.  They also ran out of towels very fast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Pros: Hotel was great. It was very clean and the beds were so comfortable. The check in was great I forgot his name but he was very accommodating to me. I asked to change the King to a Double since it was 3 of us and he made this change. I had called eariler and the lady who answered the phone didn't even check and told me no, so he really did great. Very close to the French Quarter it was about 6 to 8 mins away. We got deal by using Hotwire.Cons:The ac needed a battery in the room and I called the front desk but no one ever came.  They also ran out of towels very fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r584010197-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584010197</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Two year old hotel close to Downtown"  </t>
+  </si>
+  <si>
+    <t>This courtyard by Marriott is just over the bridge from Downtown in Gretna. Its clean with accommodations expected from the Marriott chain of hotels. The room is equipped with coffee maker, microwave and small refrigerator modern decor and clean.There is a small bistro on site and a market store for small snack items.Its a good little hotel and worth a return visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>J Emmanuel F, Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>This courtyard by Marriott is just over the bridge from Downtown in Gretna. Its clean with accommodations expected from the Marriott chain of hotels. The room is equipped with coffee maker, microwave and small refrigerator modern decor and clean.There is a small bistro on site and a market store for small snack items.Its a good little hotel and worth a return visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r584002441-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584002441</t>
+  </si>
+  <si>
+    <t>Cleanliness of Room Very Disappointing</t>
+  </si>
+  <si>
+    <t>Upon arriving, the front desk attendant Michael was very welcoming and accommodating. He as well as the rest of the staff were very friendly. However, when it came to the cleanliness of the hotel room itself I was appalled. There was food, lettuce, rice, even beads and paper on the floor. I gave them the benefit of the doubt since it was Memorial Weekend and they were probably busy. I contacted the front desk and requested a maid come and vacuum. The maid showed up not 10 minutes later and did vacuum very quickly but missed a lot on the floor. She advised not all maids have vacuums and they use a broom. Also, when asking for extra towels I was told they don’t have any because people were requesting towels and not turning in their dirty towels. Ok fine, I understand. The last straw was the ants crawling in the window seal and it was obvious that someone had been smoking in the room and put their cigarette out in the window sill. I really wanted to like this hotel since the staff was so welcoming and friendly but just can’t due to cleanliness. Please clean your rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arriving, the front desk attendant Michael was very welcoming and accommodating. He as well as the rest of the staff were very friendly. However, when it came to the cleanliness of the hotel room itself I was appalled. There was food, lettuce, rice, even beads and paper on the floor. I gave them the benefit of the doubt since it was Memorial Weekend and they were probably busy. I contacted the front desk and requested a maid come and vacuum. The maid showed up not 10 minutes later and did vacuum very quickly but missed a lot on the floor. She advised not all maids have vacuums and they use a broom. Also, when asking for extra towels I was told they don’t have any because people were requesting towels and not turning in their dirty towels. Ok fine, I understand. The last straw was the ants crawling in the window seal and it was obvious that someone had been smoking in the room and put their cigarette out in the window sill. I really wanted to like this hotel since the staff was so welcoming and friendly but just can’t due to cleanliness. Please clean your rooms.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r567664859-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
-    <t>40198</t>
-  </si>
-  <si>
-    <t>8542944</t>
-  </si>
-  <si>
     <t>567664859</t>
   </si>
   <si>
@@ -159,10 +322,10 @@
     <t>A few minor quircks but staff is very nice and pleasant.</t>
   </si>
   <si>
-    <t>The hotel is new (2017), and is very near New Orleans downtown.  It is comfortable (bed A+++). The staff is very nice and pleasant. They really make a difference.  There were a few minor problems at the cafe, but all was solved within seconds of noticing it, and with a nice smile!  A bit of noise from the freeway.  Excellent value for money.</t>
-  </si>
-  <si>
-    <t>C_McG95</t>
+    <t>The hotel is new (2017), and is very near New Orleans downtown.  It is comfortable (bed A+++). The staff is very nice and pleasant. They really make a difference.  There were a few minor problems at the cafe, but all was solved within seconds of noticing it, and with a nice smile!  A bit of noise from the freeway.  Excellent value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new (2017), and is very near New Orleans downtown.  It is comfortable (bed A+++). The staff is very nice and pleasant. They really make a difference.  There were a few minor problems at the cafe, but all was solved within seconds of noticing it, and with a nice smile!  A bit of noise from the freeway.  Excellent value for money.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r567586303-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -183,21 +346,15 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
   </si>
   <si>
     <t>We booked on points, so nothing to really complain about. Friendly staff and safe area. Housekeeping was boarderline lacking, had to call down front for them to come get pizza boxes and soda bottles that were clearly sitting beside the trash neatly. Bathroom was starting to show its age with wear and tear. I wouldn't deter anyone from booking but if we come back to NOLA we would prefer closer to the city, we racked up quite the Uber bills, so it would not be worth the few bucks saved in the lower rate in hte long run.More</t>
   </si>
   <si>
-    <t>Trafcon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r566510828-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -216,21 +373,15 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
   </si>
   <si>
     <t>I stay at Courtyards frequently.  This was a standard Courtyard and nothing really stood out except the afternoon Staff.  They were not as friendly as other Courtyards staff.  The morning crew were friendly and helpful but not so much the afternoon/evening crew.More</t>
   </si>
   <si>
-    <t>Michelle B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r565145923-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -246,18 +397,9 @@
     <t>Accommodations were comfortable and quiet!  I don't typically sleep well in hotels but had no issues here. The room was quiet (the hotel was quiet as well). Staff members were friendly, accommodating, and efficient. There is a shopping mall on the other side of the highway but no walkway to get over there.  Other retail establishments are within a 10-mile radius.  This is an excellent location with quick access to the highway and a short drive into NOLA (depending on the time of day).MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Accommodations were comfortable and quiet!  I don't typically sleep well in hotels but had no issues here. The room was quiet (the hotel was quiet as well). Staff members were friendly, accommodating, and efficient. There is a shopping mall on the other side of the highway but no walkway to get over there.  Other retail establishments are within a 10-mile radius.  This is an excellent location with quick access to the highway and a short drive into NOLA (depending on the time of day).More</t>
   </si>
   <si>
-    <t>dgrunsten</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r564769960-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -273,18 +415,15 @@
     <t>From the moment we checked in, Triston at the front desk made us feel very welcome. He was extremely polite and mannerly. Great customer service! The hotel was well appointed and very clean and the rooms were beautiful. Overall great stay!! MoreShow less</t>
   </si>
   <si>
-    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
   </si>
   <si>
     <t>From the moment we checked in, Triston at the front desk made us feel very welcome. He was extremely polite and mannerly. Great customer service! The hotel was well appointed and very clean and the rooms were beautiful. Overall great stay!! More</t>
   </si>
   <si>
-    <t>Joel B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r563694587-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -300,12 +439,15 @@
     <t>We  arrived and had a confirmation for room with  two queen beds, we were told that they only had a king room one bed and did not honor our reservation for the double. There was no hot water in the morning with no clear answer as to when it will be restored.MoreShow less</t>
   </si>
   <si>
+    <t>Ronnell W, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
     <t>We  arrived and had a confirmation for room with  two queen beds, we were told that they only had a king room one bed and did not honor our reservation for the double. There was no hot water in the morning with no clear answer as to when it will be restored.More</t>
   </si>
   <si>
-    <t>Pkolemiss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r560505782-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -330,9 +472,6 @@
     <t>My wife and I stayed in this Courtyard for one night before flying out of MSY for a trip. The hotel is very new and amenities are nice. I especially liked the configuration of the room and the bathroom having a sole shower and not the grimy shower/tub combo will pay off. The only thing I'd have preferred would have been a breakfast or a happy hour complimentary. Overall a great stay!More</t>
   </si>
   <si>
-    <t>Kaye H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r560065923-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -348,15 +487,9 @@
     <t>I was horrified during my stay at this Marriott. The first night of my stay, I got bit by a bed bug and found another bed bug crawling on my bed sheet. It was horrifying and the staff here speaks condescendingly to you and denies it even after I showed them video footage of what happened. I have attached the picture for you to review for yourself. I will be reporting this hotel to the department of health and CDC for bed bug infestation. I have the video of the bed bug moving on the bed. Additionally, housekeeping did not clean my roomMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I was horrified during my stay at this Marriott. The first night of my stay, I got bit by a bed bug and found another bed bug crawling on my bed sheet. It was horrifying and the staff here speaks condescendingly to you and denies it even after I showed them video footage of what happened. I have attached the picture for you to review for yourself. I will be reporting this hotel to the department of health and CDC for bed bug infestation. I have the video of the bed bug moving on the bed. Additionally, housekeeping did not clean my roomMore</t>
   </si>
   <si>
-    <t>Cailin56</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r555736532-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -378,9 +511,6 @@
     <t>I was booked at another hotel that turned out to be substandard.All I could think of was "Find a Marriott!" which turned into the Courtyard.It had everything I needed, just where and when I wanted it.Spacious room. great desk, power outlets by the bed, huge bathroom, microwave and fridge.And windows that open! For snowbirds in town for warmer weather, opening a window and getting a breeze felt wonderful.AND...as a Marriott Rewards member, I got an upgraded room without having to ask for it.Or least it felt like an upgrade to me.The way the reception staff greeted me, I felt they thought I was a VIP.Yes!This hotel is just across the river from the CBD - seriously, the first exit off the bridge, no toll. Staying in Gretna save me $40-50 a night.What's not to love?More</t>
   </si>
   <si>
-    <t>SDSmith87</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r555065170-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -396,9 +526,6 @@
     <t>Location was not too far from French Quarters - but not walking distance.  It was right off the freeway and right across from a mall!  The location wasn't the best but it was okay! Hotel was clean BUT the water pressure was horrible!!  They even came and looked at it and said this is the best it could be!  They didn't seem to think there was a problem with it - even though it was still very low!</t>
   </si>
   <si>
-    <t>Gail W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r553266598-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -414,9 +541,6 @@
     <t xml:space="preserve">If a clean room, with fresh linen and towels are the accommodations you seek in a hotel stay- this is not the place for you. Housekeeping is a basic component of a hotel stay. Corporate office is well aware of the deficiencies but elect to do nothing about it. .The Katrina mentality lives- wait! And then pay for a service you did not receive. The only service you will get is lip service. I left a day early. </t>
   </si>
   <si>
-    <t>Laura B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r550942462-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -432,9 +556,6 @@
     <t>The downfall is the housekeeping staff. My Husband and I stayed 4 nights.  The front desk staff was awesome and friendly. The hotel is new and modern, however, it seemed like the housekeeping staff did the minimal possible to stay employed. When the room was "cleaned"  there were no towels, toilet paper or tissues left. We had to go to the front desk and gather these items. For a new hotel, the gaps in housekeeping will be its demise. These new and modern rooms are not being cared for properly. I would not stay here again, unless comments from other travelers indicate improvements.</t>
   </si>
   <si>
-    <t>eastmidwest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r550507174-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -456,9 +577,6 @@
     <t>We stayed here while visiting family on the West Bank in December. First the Good: The location is very convenient to the French Quarter and downtown New Orleans; the room was very modern and clean, though I would have appreciated some hooks in the bathroom and more drawer space; front desk staff were friendly and accommodating; we got very good value for the money we paid. Now for the Bad: we were given a handicapped room the first night, which we neither needed nor requested. The shower was difficult to use, but they did move us to a regular room the next day; the only coffee available in the lobby is high-priced Starbucks; the employees working at the lobby restaurant ranged from indifferent to rude. They seemed more interested in looking at their phones or chatting with their friends than waiting on customers; Our room was not cleaned on the third day of our stay, though we were out all day. When housekeeping arrived after being called, the young woman seemed highly stressed and said they only had three people working that day and each person had to clean thirty rooms. In the future we might try some of the other new nearby hotels on the West Bank. It seems there might be some management problems here.More</t>
   </si>
   <si>
-    <t>Stanley A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r550085024-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -477,9 +595,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Syeda B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r549154681-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -495,9 +610,6 @@
     <t xml:space="preserve">Awesome stay with great staff. Triston the front desk agent was great. Cheryl is the Bistro server and she was cooking as well that’s a star. and Terrel is new AGM and he was very nice !!!showed amazing customer service! </t>
   </si>
   <si>
-    <t>Dan D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r548218293-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -513,9 +625,6 @@
     <t>Very nice hotel that we stayed at before going to the Saints game. Close to downtown, friendly staff and comfortable beds. Would stay again although I wish they had complementary coffee and breakfast.</t>
   </si>
   <si>
-    <t>Tierra B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r547279265-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -534,9 +643,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Ddjjjcamp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r535543232-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -555,9 +661,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>727allisonw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r534168390-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -573,9 +676,6 @@
     <t>What a great option for an affordable, comfortable business trip. The front desk staff made the effort to learn my name as I would be staying for a week. The room was excellently cleaned. Every need was met at this great find!</t>
   </si>
   <si>
-    <t>Trav6912</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r529506885-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -591,9 +691,6 @@
     <t xml:space="preserve">We stayed here on our motorcycle trip to New Orleans and we really enjoyed our stay. The hotel was very nice, and the price point was great! The staff was very friendly and helpful and gave us very good advice during our stay. We took Uber over to the French Quarter, which really worked out well. Since we were on motorcycles we didn’t want to be in the middle of the crowded FQ and this was perfect. Highly recommend. </t>
   </si>
   <si>
-    <t>starfyre</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r525565225-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -621,9 +718,6 @@
     <t>The person who checked us in was very friendly and nice.  The room was good, though I would have preferred a larger fridge.  There was really no reason to choose to put the absolute smallest fridge they could in the room.  My daughter found the pool to be too cold to really use.  Everything was clean and comfortable though.  The location was close enough to the French Quarter to make it an easy trip.  Overall, I would recommend staying here again despite my minor gripes.More</t>
   </si>
   <si>
-    <t>Scott T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r525014035-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -648,9 +742,6 @@
     <t>So this is a shame because it's a pretty nice hotel. But what happened tonight I have never seen anything like it. The staff here is literally the worst I have EVER seen!  We checked in after driving 8 hrs and walked in our room. It was 9pm here and 10pm our time. We have little kids that we're not in the mood for anything but bed. There was the loudest music you ever wanted to here right outside our window. We called immediately to the front desk and told them our floor was shaking. They said "There's a party just wrapping up."  So okay, I get it. I can live with that. I called back at 930. Same story from the front desk. There's a party. Keep in mind all this time I have a crying 4 year old just wanting to close his eyes. We called again at 945. Same story. I called at 10 and now I am hot!  I told them we needed to be moved. They said ok and I asked why moving me was easier than turning music off. It was funny apparently because they laughed. She then told me that the asst manager would bring up new keys. We packed up our stuff and dressed the kids and put shoes on. Then 10 minutes later the phone rings. "We shut the music off. Do you still want to move?"  I told them no...So this is a shame because it's a pretty nice hotel. But what happened tonight I have never seen anything like it. The staff here is literally the worst I have EVER seen!  We checked in after driving 8 hrs and walked in our room. It was 9pm here and 10pm our time. We have little kids that we're not in the mood for anything but bed. There was the loudest music you ever wanted to here right outside our window. We called immediately to the front desk and told them our floor was shaking. They said "There's a party just wrapping up."  So okay, I get it. I can live with that. I called back at 930. Same story from the front desk. There's a party. Keep in mind all this time I have a crying 4 year old just wanting to close his eyes. We called again at 945. Same story. I called at 10 and now I am hot!  I told them we needed to be moved. They said ok and I asked why moving me was easier than turning music off. It was funny apparently because they laughed. She then told me that the asst manager would bring up new keys. We packed up our stuff and dressed the kids and put shoes on. Then 10 minutes later the phone rings. "We shut the music off. Do you still want to move?"  I told them no and we got back to bed. This place is expensive and not worth the money until they get better service. I work and own some of a very large company that puts people in hotels as well as myself everyday. I think about if I were to put a customer here and that were to happen to them how does that look on me. Looks like Hilton may be the one to stay with. More</t>
   </si>
   <si>
-    <t>Robinn33701</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r523442025-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -675,9 +766,6 @@
     <t>We checked in last night, but something in the cleaning supplies bothered my allergies.  We went up to the room to see if it was better than the lobby.  All was very clean, but something effected my sinuses and we had to leave.  The room was very clean and the staff very friendly and tried to help, but were happy to refund our money and let us go on our way.  Side note...we could really hear the highway from our room, and the noise from the room above us was loud as we heard kids running around.  Not in the greatest neighborhood, was a little worried if my car would be okay.More</t>
   </si>
   <si>
-    <t>FoxFrancis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r512258851-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -705,9 +793,6 @@
     <t>I really like the hotel, but the service is not up to Marriott standards. With a new hotels being built next door and across the street, I'd recommend choosing elsewhere based on The Ugly (see below). The Good: The hotel is in a really good location outside of the Central Business District and French Quarter - great highway access to get you back across the Mississippi River. The Bad: The check-in was not up to Marriott standards. I was just given my keys without explanation of the wireless fees (which they usually do), the location of the elevators, or the pool/exercise room. The Ugly: Although this didn't happen to me, these occurred to a member of my family staying with us. (1) asked for us to be on the same floor with family members, they said sure. It didn't happen. (2) They couldn't find the reservation at check-in; the person's suffix, i.e., IV, was entered as his last name. (3) The room had a strong odor of marijuana that dissipated the next day. (4) When asked for another room, the front desk clerk checked my family member out of the room. (5) Housekeeping  forgot to provide towels to the room. More</t>
   </si>
   <si>
-    <t>Joe D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r510056272-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -723,9 +808,6 @@
     <t>If you want to stay in New Orleans but can't get a suitable place in the French Quarter (whether availability or price), this is a great alternative.  All the consistency of the Marriott brand, great service, clean rooms and mere minutes from the French Quarter.  Easy mobile check in, and friendly service as well - this is an excellent option for any stay in New Orleans.</t>
   </si>
   <si>
-    <t>Karen P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r503309801-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -753,9 +835,6 @@
     <t>Whether you stay at a Courtyard Marriott in Louisiana or Lake Placid, NY, you know what to expect. Service very good and rooms perfectly clean with comfortable beds and bedding. We used the small microwave and fridge in the room and the treadmills in the workout room. The food/ coffee bar has reasonably priced breakfast options including Starbucks drinks. This location was perfect for sight-seeing in and around NOLA. No attraction was more than 15-20 mins away. There is even a mall about two mins away. More</t>
   </si>
   <si>
-    <t>Tnvol01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r499533377-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -771,9 +850,6 @@
     <t xml:space="preserve">This is a new hotel.  Rooms are clean and staff is friendly.  They have a bistro that serves breakfast and dinner.  Convenient to 90 and about 15 minutes from the French Quarters.  Poll and exercise room.  Free parking I have stayed here 3 times in the last month for business.  I would definitely come back Jasmine was so helpful and friendly.  She typed up a list of places for us to go to while we were there.  When my TV was not working in my room she knew exactly how to fix it.  She was amazing.  I highly recommend  </t>
   </si>
   <si>
-    <t>J_A_Mc98</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r498816855-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -801,9 +877,6 @@
     <t>I'm a local and stayed here as we were moving out of town and our house was packed up.  This a modern new property and I was very impressed with everything about the hotel.  The room was spacious with multiple lights and places to charge devices.  We really loved the walk-in shower.  There was a loud party going on when we checked in but the hotel was insulated enough that we did not hear anything from it when we went upstairs.More</t>
   </si>
   <si>
-    <t>Ed M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r496707125-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -822,9 +895,6 @@
     <t>Friends and I were in Gretna Louisiana partying for the weekend. We stayed at this Marriot Courtyard.  The hotel is located in a safe location immediately off the Expressway.  We had easy access via highway to the French Quarter. We reserved three rooms.  We were allowed to check in early on Friday. The checking in process was quick.  All three rooms were clean as to be expected with the Marriot Brand.  The Staff was very helpful in helping us to find good local restaurants and bars for our pleasure.    The outside patio was clean with adequate outdoor furniture for lounging.  We did not use their breakfast dining facility but it appeared to be accommodating had we chose to use it. If you like Starbucks, it was located jointly with their dining facility.    My friends and I would surely stay there again when we return to Louisiana.    Special Thanks to Duty Managers Tristan , Angie, and the rest of the staff for making our stay very comfortable.More</t>
   </si>
   <si>
-    <t>Cristina M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r486239253-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -841,9 +911,6 @@
   </si>
   <si>
     <t>We came into town for a concert at the Saenger Theatre. Overall, it is close to the hotel, but the traffic was a nightmare! It took 40+ minutes to get anywhere, our entire stay regardless of the time of day. So, be aware of that if you're planning to travel to downtown New Orleans or Metairie. Our room was clean and smelled fresh and new. The hotel was clean overall. The pool was also nice, although a hot tub would have been even better. The pool was warm which made it even better. We only encountered a couple of disappointing staff issues. First, we called to inquire about late checkout the night before, a young girl answered and said to hold on, I sat on hold for 40+ minutes while she talks casually to another employee. She never came back to the phone. I hung up and called again an hour later and got someone different who did grant late checkout. The other issue was there was some type of wedding party in the HANDICAP room next to us. They were playing very loud music and yelling/screaming until 2 a.m. I had to call the staff at the front desk FIVE times before any did anything about it. Needless to say, night two consisted of very little sleep. The cleaning lady informed me the next day it was a wedding party which should not be allowed where there are other...We came into town for a concert at the Saenger Theatre. Overall, it is close to the hotel, but the traffic was a nightmare! It took 40+ minutes to get anywhere, our entire stay regardless of the time of day. So, be aware of that if you're planning to travel to downtown New Orleans or Metairie. Our room was clean and smelled fresh and new. The hotel was clean overall. The pool was also nice, although a hot tub would have been even better. The pool was warm which made it even better. We only encountered a couple of disappointing staff issues. First, we called to inquire about late checkout the night before, a young girl answered and said to hold on, I sat on hold for 40+ minutes while she talks casually to another employee. She never came back to the phone. I hung up and called again an hour later and got someone different who did grant late checkout. The other issue was there was some type of wedding party in the HANDICAP room next to us. They were playing very loud music and yelling/screaming until 2 a.m. I had to call the staff at the front desk FIVE times before any did anything about it. Needless to say, night two consisted of very little sleep. The cleaning lady informed me the next day it was a wedding party which should not be allowed where there are other guests trying to sleep.Overall, we would probably stay again but I might consider location a little more carefully next time. The hotel is secure once you're inside, but I felt a little scared outside. It is New Orleans, so just be aware of that. The front of the hotel does face the interstate. If you're sensitive to traffic, ask for a room facing the backside. I couldn't hear the traffic for the wedding party next door. :)More</t>
-  </si>
-  <si>
-    <t>Anthony D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r485116303-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -860,15 +927,12 @@
   <si>
     <t>This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.
 Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.
-In...This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.In the evening hours the front door is locked and can be opened by the room key. One night (after the door was locked), my wife and I heard someone walking around on the roof above our head. Having the AC handler was unsettling enough, a person walking around on top of the building was a bit weird.  Chances are, the only person with access to the roof would have been the guy (that should have been at the front desk). I called the front desk and it rang and rang (30+ times). During the ringing, it sounded like the phone transferred to another phone. Finally a guy answered and I asked about a person on the roof. He told me he'd check it out and hung up. There are generally only a few reasons why a person might be hanging out on top of the building, (scenic view, air flow in case they wanted some smoke to blow away, etc). I'll let management figure that one out. Shortly afterward, someone continued to walk around the roof above us.Just a suggestion: It would be helpful if you had complementary coffee available. You have a new Hilton chain being built next door and that chain DOES have coffee available. Your hotel doesn't have anything complementary available. We ended up going out into town to a coffee place and found ourself in the middle...MoreShow less</t>
+In...This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.In the evening hours the front door is locked and can be opened by the room key. One night (after the door was locked), my wife and I heard someone walking around on the roof above our head. Having the AC handler was unsettling enough, a person walking around on top of the building was a bit weird.  Chances are, the only person with access to the roof would have been the guy (that should have been at the front desk). I called the front desk and it rang and rang (30+ times). During the ringing, it sounded like the phone transferred to another phone. Finally a guy answered and I asked about a person on the roof. He told me he'd check it out and hung up. There are generally only a few reasons why a person might be hanging out on top of the building, (scenic view, air flow in case they wanted some smoke to blow away, etc). I'll let management figure that one out. Shortly afterward, someone continued to walk around the roof above us.Just a suggestion: It would be helpful if you had complementary coffee available. You have a new Hilton chain being built next door and that chain DOES have coffee available. Your hotel doesn't have anything complementary available. We ended up going out into town to a coffee place and found ourself in the middle of a crime scene.  Plus your $10 rubber egg plate isn't really a good deal for breakfast. Overall, the stay was okay. We felt safe there (once we got inside). The guy on the roof didn't help. We found the staff (minus the guy that answered the call about the roof) were all very polite and helpful.What would make this place better? The coffee (noted above), find a way to insulate sound under the AC Handlers, put better chairs in the room, and consider relooking at the layout of the rooms.MoreShow less</t>
   </si>
   <si>
     <t>This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.
 Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.
-In...This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.In the evening hours the front door is locked and can be opened by the room key. One night (after the door was locked), my wife and I heard someone walking around on the roof above our head. Having the AC handler was unsettling enough, a person walking around on top of the building was a bit weird.  Chances are, the only person with access to the roof would have been the guy (that should have been at the front desk). I called the front desk and it rang and rang (30+ times). During the ringing, it sounded like the phone transferred to another phone. Finally a guy answered and I asked about a person on the roof. He told me he'd check it out and hung up. There are generally only a few reasons why a person might be hanging out on top of the building, (scenic view, air flow in case they wanted some smoke to blow away, etc). I'll let management figure that one out. Shortly afterward, someone continued to walk around the roof above us.Just a suggestion: It would be helpful if you had complementary coffee available. You have a new Hilton chain being built next door and that chain DOES have coffee available. Your hotel doesn't have anything complementary available. We ended up going out into town to a coffee place and found ourself in the middle...More</t>
-  </si>
-  <si>
-    <t>Brett B</t>
+In...This is the second time we've stayed at this hotel. Last year for seven days, this time five days. I prefer a lower room but our flight came in early and they accommodated us by giving us a 4th floor room. Granted, they could have said, "Come back later" so I'm happy to have been able to settle in after crazy flights.  Overall, the room was okay. As someone else noted in a review, the room is laid out a bit weird with the bed at a 90-degree angle from the TV.  My wife says she likes the Love seat thing (although she never sat on it) - I hate it. It was uncomfortable for my back and neck, and there were no other chairs. I had to load up a bunch of pillows to find a somewhat comfortable position. Having had serious back and neck injuries, I think the chair would be more useful if someone threw it out the window.Directly above our room (416) there was a large air conditioning handler on the roof. It looks like there's a similar one on the opposite end of the building as well. Throughout the night, it sounded like there was a small airplane engine running above us. My wife and I both had to get earplugs so we could sleep. Given the AC Handler on the other side, guests on that side likely have noise issues as well.In the evening hours the front door is locked and can be opened by the room key. One night (after the door was locked), my wife and I heard someone walking around on the roof above our head. Having the AC handler was unsettling enough, a person walking around on top of the building was a bit weird.  Chances are, the only person with access to the roof would have been the guy (that should have been at the front desk). I called the front desk and it rang and rang (30+ times). During the ringing, it sounded like the phone transferred to another phone. Finally a guy answered and I asked about a person on the roof. He told me he'd check it out and hung up. There are generally only a few reasons why a person might be hanging out on top of the building, (scenic view, air flow in case they wanted some smoke to blow away, etc). I'll let management figure that one out. Shortly afterward, someone continued to walk around the roof above us.Just a suggestion: It would be helpful if you had complementary coffee available. You have a new Hilton chain being built next door and that chain DOES have coffee available. Your hotel doesn't have anything complementary available. We ended up going out into town to a coffee place and found ourself in the middle of a crime scene.  Plus your $10 rubber egg plate isn't really a good deal for breakfast. Overall, the stay was okay. We felt safe there (once we got inside). The guy on the roof didn't help. We found the staff (minus the guy that answered the call about the roof) were all very polite and helpful.What would make this place better? The coffee (noted above), find a way to insulate sound under the AC Handlers, put better chairs in the room, and consider relooking at the layout of the rooms.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r481266072-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -894,9 +958,6 @@
 The Bistro was also nice too, only problem was that when we got there so late on Saturday that much of the food had been eaten as they make most of everything from scratch.  We actually ended up getting salads with this homemade ginger dressing which was great!  The...My wife and myself drove from Dallas to New Orleans for a cruise and decided to stay at the Courtyard in Gretna as it was only about 5-10 minutes to the cruise port. We checked in about 9pm on a Saturday night.  The Courtyard looked very new(and I found out later it has only been open about a year and a half) and it had some neat touches.  In the shower they have a nook where you can stick your towels for use when you are done and not have to walk across the bathroom to get one off the rack/shelf.  There was also plenty of shelf space in the shower itself to put your shampoo, soap, razors, etc.  Oh and note, yes the room we stayed it has only a shower and I suspect that may be throughout the hotel.  Additionally the room has the TV on swivel wall mount which allows you to angle it towards the bed.  There is also a table that slides under the couch so if you are sitting there you have a place to put your drink(they also have these I the lobby area).The Bistro was also nice too, only problem was that when we got there so late on Saturday that much of the food had been eaten as they make most of everything from scratch.  We actually ended up getting salads with this homemade ginger dressing which was great!  The breakfast the next morning was also really good.However, we ran into a snag(not with the hotel) but when we went to leave for our cruise our car would not back out.  After calling AAA to tow our car to a mechanic the staff was very sympathetic and even went and called up a shuttle service to take us to the port.  They also helped us get a room to stay the night after we returned from the cruise as the mechanic would not be open until Monday.  We were very impressed with how friendly and helpful the staff were in this stressful situation.We made our cruise and returned to having our car fixed(great mechanic that was only about 2 miles from the hotel).  But we returned to the hotel after our cruise to the same friendly and helpful staff as before(and great food in the bistro).  The next day we retrieved our car and headed back to Dallas.  When we come back to New Orleans(for either a cruise or just to see the city more) we will definitely be staying here again.Thanks!More</t>
   </si>
   <si>
-    <t>Josh S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r481049878-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -910,9 +971,6 @@
   </si>
   <si>
     <t>Very nice and sleek hotel. It was very quiet and the staff was very professional and helpful. I highly recommend this hotel for anyone who will be in the city for a couple days. It is located across the river from Bourbon Street and other amenities.</t>
-  </si>
-  <si>
-    <t>Roboduckie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r476649270-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -950,9 +1008,6 @@
 Not a...This new hotel is just over the bridge and off the highway and the price is great since you're outside NOLA. Spacious, clean and modern lobby with plenty of room to socialize, eat or do some work. Convenient plugs IN the couches was awesome!Desk staff is friendly, but it seems they have some new folks still getting up to speed and they appear to be understaffed. Cafe/bar staff unsure how to make a drink and no one checks on you. Food and coffee aren't bad, but skip it as there's plenty offerings close by.Housekeeping never came into my room during my 3 night stay. The first night I had a DnD tag out, but not the others. Was getting late and I even called down to confirm they would still do my room. Never showed. So, asked for more towels. Never showed. Had to go get them. Had to make another trip to get another key since they had cleared the key I had...The rooms are modern with really cool accents and novel touches for storage and amenities. The lighting layout is cool and I love the Couch and ottoman - so comfortable I fell asleep on it! Bed was very comfortable, bathroom well laid out. Only down side was TV didn't work (cable problem). Didn't bother reporting it as I wasn't there much. No matter what room you choose, do not expect great views.Not a lot of restaurants to choose from nearby, so go into NOLA, unless you like Dominos. WiFi ok. Hopefully they'll hire more folks and get them trained up quickly because this hotel is really nice.More</t>
   </si>
   <si>
-    <t>Sandyblack25</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r464664230-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -974,9 +1029,6 @@
     <t>Our overall stay at this hotel was good, the staff was very helpful and accommodating.When making the reservation I specifically requested a king room with a bathtub. After checking in and walking into the room we noticed that the room only had a shower. I promptly went to the front desk and let the clerk know the room was not what we requested. She then sent us to another room and it too did not have a bathtub. We went back to the front desk and the clerk went to check several room and found none of the king rooms had bathtubs in them.  Since we wanted a tub we had to settle for a double room, which was not what we really wanted or requested. The hotel is new, beautifully decorated and ultra modern. We had a nice stay but issues at check-in were disappointing.More</t>
   </si>
   <si>
-    <t>gypsyrunaway</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r464446366-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -998,9 +1050,6 @@
     <t>We stayed here during our first night Mardi Gras weekend. The room was ok. Beds were comfy. The bathroom shower was low flow and the water temperature didn't heat very quickly. The front desk rep was awesome though and provided expedient and friendly service with an easy going smile despite such a crazy weekend. The property is pretty far from all the parade action and unfortunately you have to take an Uber or taxi to get anywhere near the action which can be costly. Tip : You can take a $2 ferry from here across the water to get to canal st near the quarter.More</t>
   </si>
   <si>
-    <t>dallascowboysfan09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r461041641-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1014,14 +1063,11 @@
   </si>
   <si>
     <t>This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. 
-The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also...This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also hit or miss. Some people have no problems with temp controls, while others in the the group can't get it set correctly. For those who actually unpack and use dresser drawers, there are only 2 small skinny drawers available. There are two small side tables with small drawers too. It just seems like there's a lot of wasted space. The bed really should be opposite the TV placement, but I guess it's a Courtyard thing. The rooms that face the highway are a bit louder, so if traffic bothers you, I'd ask for rooms on the back side. When the AC fan is on, it drowns out most of the road noise. No free breakfast or anything offered. There is a Bistro area/cafe which offers some Starbucks-branded items (it's NOT a Starbucks like a few reviews alluded to and you CANNOT use your app or registered card or anything so that's a negative) and other food items, but your best bet is to find a nearby breakfast joint and go there. It'd be a whole lot cheaper. On the positive side, they have a million TV channels, thanks to Directv being offered, and all the HBO, Showtime, Cinemax, etc channels are on there, too. It's convenient getting back to the hotel from downtown NOLA and the French Qtr itself, but be warned: if there's even a small accident on the bridge (US 90...MoreShow less</t>
+The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also...This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also hit or miss. Some people have no problems with temp controls, while others in the the group can't get it set correctly. For those who actually unpack and use dresser drawers, there are only 2 small skinny drawers available. There are two small side tables with small drawers too. It just seems like there's a lot of wasted space. The bed really should be opposite the TV placement, but I guess it's a Courtyard thing. The rooms that face the highway are a bit louder, so if traffic bothers you, I'd ask for rooms on the back side. When the AC fan is on, it drowns out most of the road noise. No free breakfast or anything offered. There is a Bistro area/cafe which offers some Starbucks-branded items (it's NOT a Starbucks like a few reviews alluded to and you CANNOT use your app or registered card or anything so that's a negative) and other food items, but your best bet is to find a nearby breakfast joint and go there. It'd be a whole lot cheaper. On the positive side, they have a million TV channels, thanks to Directv being offered, and all the HBO, Showtime, Cinemax, etc channels are on there, too. It's convenient getting back to the hotel from downtown NOLA and the French Qtr itself, but be warned: if there's even a small accident on the bridge (US 90 highway), you'll be sitting in traffic for awhile.MoreShow less</t>
   </si>
   <si>
     <t>This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. 
-The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also...This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also hit or miss. Some people have no problems with temp controls, while others in the the group can't get it set correctly. For those who actually unpack and use dresser drawers, there are only 2 small skinny drawers available. There are two small side tables with small drawers too. It just seems like there's a lot of wasted space. The bed really should be opposite the TV placement, but I guess it's a Courtyard thing. The rooms that face the highway are a bit louder, so if traffic bothers you, I'd ask for rooms on the back side. When the AC fan is on, it drowns out most of the road noise. No free breakfast or anything offered. There is a Bistro area/cafe which offers some Starbucks-branded items (it's NOT a Starbucks like a few reviews alluded to and you CANNOT use your app or registered card or anything so that's a negative) and other food items, but your best bet is to find a nearby breakfast joint and go there. It'd be a whole lot cheaper. On the positive side, they have a million TV channels, thanks to Directv being offered, and all the HBO, Showtime, Cinemax, etc channels are on there, too. It's convenient getting back to the hotel from downtown NOLA and the French Qtr itself, but be warned: if there's even a small accident on the bridge (US 90...More</t>
-  </si>
-  <si>
-    <t>Dee A</t>
+The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also...This appears to be a newer hotel, but there are some interesting design issues going on here. First off, fridges and microwaves are in a triangular-shaped cabinet in the corner of the room. I thought my room didn't have one, so I'm glad I didn't complain or ask about them before I found out this fact. The bed is placed at a 90 degree angle to the TV, which can be moved out a bit, but this sharp angle makes it rather difficult to watch TV at times. The desk area is right in front of the TV so that's also awkward because you have the TV right over your head if you're sitting at the desk. It also feels like you're in the first row at the movie theater when you're at the desk and look up to watch TV. The shower is half glass, half open, so the bathroom floor can get wet if you're not careful. My group and I have had mixed results with water temp and pressure. There seems to be no rhyme or reason - some people have scalding hot water in the showers while others can only get lukewarm temps. Some have low water pressure in the sink, others have great pressure. Who knows what the issue is. There's no hook for the ironing board in the closet, either, so it leans up against the wall in the closet. The AC is also hit or miss. Some people have no problems with temp controls, while others in the the group can't get it set correctly. For those who actually unpack and use dresser drawers, there are only 2 small skinny drawers available. There are two small side tables with small drawers too. It just seems like there's a lot of wasted space. The bed really should be opposite the TV placement, but I guess it's a Courtyard thing. The rooms that face the highway are a bit louder, so if traffic bothers you, I'd ask for rooms on the back side. When the AC fan is on, it drowns out most of the road noise. No free breakfast or anything offered. There is a Bistro area/cafe which offers some Starbucks-branded items (it's NOT a Starbucks like a few reviews alluded to and you CANNOT use your app or registered card or anything so that's a negative) and other food items, but your best bet is to find a nearby breakfast joint and go there. It'd be a whole lot cheaper. On the positive side, they have a million TV channels, thanks to Directv being offered, and all the HBO, Showtime, Cinemax, etc channels are on there, too. It's convenient getting back to the hotel from downtown NOLA and the French Qtr itself, but be warned: if there's even a small accident on the bridge (US 90 highway), you'll be sitting in traffic for awhile.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r458189723-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -1039,9 +1085,6 @@
     <t>My husband and I had an outstanding experience at the Courtyard New Orleans Westbank/Gretna.   Since the hotel was new, everything looked, smelled, and felt new and clean.  The hotel staff were very courteous, the room was spacious, and the bed felt great.  That shower - OMG!!  That was the best shower, it was huge, and the shower head felt great.  We will definitely stay at this hotel again.</t>
   </si>
   <si>
-    <t>lovetheozarkshome</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r456212057-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1060,16 +1103,28 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Phillip M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r452920245-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
     <t>452920245</t>
   </si>
   <si>
-    <t>PEGGY D</t>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>The check in was fine but the room had dirty linen still in place - yuk.  The online booking that morning had invited me to join the Marriott club so I did.  The fee I was charged for the three nights was much higher than I expected- and I queried it he following morning.  I was reassured by the staff that my email confirmation was wrong and I would only be charged $355 for the three nights.  This stopped me from leaving and booking elsewhere. My mistake. On checkout my bill was over $700.  Complaining to the manager got it brought down a bit, but overall was disappointing.  Nice breakfast staff and nice facilities.  Shame about the overall stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>The check in was fine but the room had dirty linen still in place - yuk.  The online booking that morning had invited me to join the Marriott club so I did.  The fee I was charged for the three nights was much higher than I expected- and I queried it he following morning.  I was reassured by the staff that my email confirmation was wrong and I would only be charged $355 for the three nights.  This stopped me from leaving and booking elsewhere. My mistake. On checkout my bill was over $700.  Complaining to the manager got it brought down a bit, but overall was disappointing.  Nice breakfast staff and nice facilities.  Shame about the overall stay. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r444051346-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -1090,9 +1145,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>jama80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r443113465-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1108,9 +1160,6 @@
     <t>Great new property.  Was impressed with the lobby and bar.  Food was ok, staff was very accommodating.  The location is accessible to freeways, main roads and highway.  Took me 25 minutes from airport.  Not bad.</t>
   </si>
   <si>
-    <t>elisa r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r442643215-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1129,9 +1178,6 @@
     <t>my sister and i totally loved this hotel even though it was for one night.  the front desk staff was very helpful and friendly.  check in was no problem.  the rooms was extremely spacious...very clean..loved the gigantic beds.  i also enjoyed the lobby.  starbucks in the hotel! they had several big lounge chairs that you can put your feet up, table with chairs,  u cant get better than that.  they also had food to purchase.  the seating in the lobby was fantastic with a big t.v. and a personal t.v...  across the road was a mall you can walk around or shop.  we went to IHOP and we had the most delicious multigrain pancakes i've ever had.  im from new york and they don't taste as delicious as these. they have a microwave,coffee maker and fridge.  the rooms are a modern style. the bathroom was huge and very clean.  we were just blown away with this hotel.  its so nice.  the only is that its out of the way to the airport.  its still good because its out of the way of the crowded or noisey side of new orleans.  we really enjoyed this hotel.More</t>
   </si>
   <si>
-    <t>Tapas S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r442259107-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1150,9 +1196,6 @@
     <t>I wrote about this hotel before but it is worth my time again. Hotel in New Orleans are pricy, some has parking nightmare with or without nightly parking fee, variable rates from night to night and crazy traffic.This place is right across the Mississippi River bridge, a breath away from the downtown, LSU and Tulane Medical facilities and all the attractions but very affordable, newer hotel just to camp for a few days for me to work this week in the city.I love the staff because they are always friendly, location is just right for me, rates are great and I am going to enjoy my work this week. You should give the, a call if you are traveling for work or pleasure.More</t>
   </si>
   <si>
-    <t>fremelb2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r440886744-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1168,9 +1211,6 @@
     <t>Friendly staff, new room. We were pleasantly surprised. The walls are thin but great value for the room. My wife used the workout room, which is next to the indoor pool. She enjoyed that. We liked the reclined chaired movie area, that was pretty cool. We ate breakfast here as well, which was pretty good.</t>
   </si>
   <si>
-    <t>Hca5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r439799883-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1186,9 +1226,6 @@
     <t xml:space="preserve">This hotel is very nice and new with comfy beds and an overall clean feel. My pillowcase was a bit dirty and the coffee in the room absolutely SUCKS (plus they only offer a non dairy powdered creamer made up corn syrup solids ew), but it's good for families or whoever would like a quiet escape from the French Quarter without having to travel very far. You do need a car, but it's a very short drive from the main area. </t>
   </si>
   <si>
-    <t>Debo777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r438019404-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1207,9 +1244,6 @@
     <t>Have been staying with Marriott since 2000.  This is a nice property close to the New Orleans convention.  Our stay was six days started noticing the second day that there seemed to be at least two people on the property.  One morning went down stairs to have breakfast waited in line at the Bistro my turn finally came up and asked Cheryl if she had any help.  Cheryl's response was yes but her help kept disappearing.  Tables needed to be cleaned.  Started noticing trash cans over filled, carpets not vacuumed.  Came to room after work only to find that our room had not been cleaned this was after two days.  Called to ask for housekeeping, young lady had attitude just asked to make bed.  The 4th day same thing happened.  Saw that the linen room was opened and helped myself to clean towels and toilet paper.  Left our full trash cans in the linen room and put dirty towels in the hallway.  Last night the TV was not working so got moved to another room only to have a Bachelorette party going on in the next room.  One night went outside to the fire pit only to find that it was not operable.  Beautiful property but not maintained.  Cheryl at the Bistro was the only positive happy person on the property everyone else seemed to just hang out.More</t>
   </si>
   <si>
-    <t>PixieBaby1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r436256672-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1228,9 +1262,6 @@
     <t>Stayed here for 3 nights with my husband, travelling for business. The girl at the desk on 2nd shift was very professional and friendly. The room was pretty clean other than some candy under the bedskirt, and looked very nice. The bathroom was nice as well, though I would have preferred a full bathtub. Shower clogged the next morning and would not drain. Had to cut my shower short or overflow onto the floor. This was fixed immediately by maintenance. Could not get my phone to connect to Wi-Fi, but my tablet connected after a few tries. Overall it was nice. The bed was downright dreamy! I slept very well. I would recommend to management that they try to please their employees a little more, as my husband and I overheard several different employees in both housekeeping and desk complaining about hours and pay.More</t>
   </si>
   <si>
-    <t>Hilda D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r431251250-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1249,9 +1280,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>SterlJ93</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r414065480-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1270,9 +1298,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>LaMonica B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r412042282-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1291,9 +1316,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Grace O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r402627802-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1309,9 +1331,6 @@
     <t xml:space="preserve">We stayed here after we arrived back from our cruise. We were pleased with this location, it was literally 10 minutes from New Orleans (right across the river). We walked to the mall which was right across the street. Very clean hotel. The staff that was working when check out at 3:00 am was very nice and accommodating. We would defitnely stay here again. </t>
   </si>
   <si>
-    <t>Mike F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r401513886-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1327,9 +1346,6 @@
     <t>This Courtyard by Marriott was in a good location to all the events we like to visit  on our stay in New Orleans.  Room was wonderful and pleasant for a week stay.  It had a modern design.  The staff was very helpful.</t>
   </si>
   <si>
-    <t>Mark B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r401075252-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1351,9 +1367,6 @@
     <t>The hotel and the hotel room layout are good.  You can tell that the place is fairly new.  The staff that we dealt with was very accommodating.  My only complaint is either with the hotel or TripAdvisor.com.  I was traveling with my mom and when I booked the room for a 2 night stay, I asked for a handicapped accessorized room.  When I checked in, the lady at the front desk had no idea of what I was talking about.  At the time, I was not made aware of a booster seat for the toilet was available, but the hotel made one available the next morning.  The Courtyard has the Bistro restaurant, located in the lobby.  Other than that, there is not too much to choose from in the area to eat. The free Wi-Fi was OK.More</t>
   </si>
   <si>
-    <t>Steve C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r397540591-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1372,9 +1385,6 @@
     <t>We stayed here for the weekend before our cruise, and could not have made a better choice. The location is perfect - a 5 minute cab ride just across the river from the cruise terminal and the French Quarter. We booked their "cruise package", which basically is that you can leave your car there at no charge, and they pay for your shuttle to the ship. That alone saved us well over $100. The hotel is new and modern and I hope they strive to keep it as nice as it is now. In this day of non-customer service, everyone on the staff that we encountered was most polite and helpful. The bed was very comfortable, the bar /restaurant was adequate, tho a bit pricey, and the pool / exercise room were clean and well maintained. This will be our "go to" place from now on in New Orleans.More</t>
   </si>
   <si>
-    <t>smc8557</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r397366488-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1387,9 +1397,6 @@
     <t>This hotel is new and modern. The hotel staff were polite and helpful. The bathrooms could use some shelves and organization so the towels don't sit on the counter and take up space. The only real downfall we found staying here was the noise. The walls are extremely thin and the hall noise was enough to keep our kids awake. The location is about a 10 min drive to the French Quarter. There was limited restaurants around the hotel.</t>
   </si>
   <si>
-    <t>Teirrah M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r397277808-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1402,9 +1409,6 @@
     <t>This hotel was so charming and the staff was outstandingly personable. The pool was a delight and a very entertaining bartender cooked us up a splendid array of New Orleans style finger foods. To top it all off, I left a couple of important books behind and the staff was quick to ship them to me back here in California. I recommend this hotel and will book again for sure when I am in New Orleans.</t>
   </si>
   <si>
-    <t>David Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r393025417-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1420,9 +1424,6 @@
     <t xml:space="preserve">Always happy with Marriott hotels. Wonderful staff - very friendly. The hotelAppears to have been recently renovated and the rooms are nicely appointed.The room didn't have a decent view but then again the only thing we'll do there is sleep, bathe and get dressed so for us it isn't relevant. The hotel is minutes away from the French Quarter.  </t>
   </si>
   <si>
-    <t>dallasguy2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r389582877-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1438,9 +1439,6 @@
     <t>This was a pleasant hotel! Staff was nice and friendly. The room was comfortable and the pool was nice. One of the staff members even volunteered to get my ice so I didn't have to go looking for it! Only unpleasant thing was the fire alarm that went off when a hotel guest pulled it, but you can't hold the hotel accountable for something an assclown did.</t>
   </si>
   <si>
-    <t>Kalandra H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r389509832-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1453,9 +1451,6 @@
     <t>This is a new hotel and still has the new smell as well. It was very trendy and modern with all the decor. It was very clean from the exteriors to the inside of the rooms. I was very pleased with the choice I made. The beds were very comfy, The bathrooms were spacious and accommodating. The staff was very friendly and helpful throughout our stay. It was in a great location however  hard to get to using MapQuest. We used Uber to go back and forth to the French Quarters, Convention Center and SuperDome.</t>
   </si>
   <si>
-    <t>Ronald M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r389091716-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1474,9 +1469,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Kim B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r388139465-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1492,9 +1484,6 @@
     <t>This is a new hotel with trendy furnishings. It was in a great location and easy access to the French Quarter. The hotel will call a taxi for you to get to the French Quarter, too, and it was only around $25.</t>
   </si>
   <si>
-    <t>Julie N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r387639167-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1510,9 +1499,6 @@
     <t>This is a new hotel that we loved staying at. The hotel was clean and the staff was very friendly. The room was big, super modern, and very technology friendly with many places to charge all your devices. Very close to New Orleans with free parking. Would recommend this hotel.</t>
   </si>
   <si>
-    <t>Sherry Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r387192415-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1528,9 +1514,6 @@
     <t xml:space="preserve">Location provides easy access to the bridge or ferry into the French Quarter. Highly recommend staying there for any reason.  Rooms are clean. Bathrooms are modern. Refrigerator included (small tho). Quiet. Pool and small workout room are nice. Bistro restaurant is decent.  </t>
   </si>
   <si>
-    <t>GaryinOK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r386657192-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1546,9 +1529,6 @@
     <t>We stayed here on the Saturday night before our Carnival cruise left NOLA on Sunday. We parked our vehicle here and felt totally safe. There is not much around the hotel (other than a neighboring Holiday Inn) and the parking lot is lit up like a Christmas tree. The hotel is very new and had a couple of new hotel kinks that it was working through, but nothing major. The room was roomy and comfortable. The shuttle took us to the pier with plenty of time to spare. It was a cheap cab ride back to retrieve my vehicle.</t>
   </si>
   <si>
-    <t>puertovallartafan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r386050066-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1564,9 +1544,6 @@
     <t>We were visiting our familiy in N.O . This new hotel had a perfect location for what we needed. We liked the room design, the bathroom, the good bed and sofa.The housekeeping could have done a better job, every day they forgot something,one day the room was not cleaned before 3 a.m,next day no coffee,no kleenex.....Overall we had a good stay in Gretna.</t>
   </si>
   <si>
-    <t>basketgal89</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r384421468-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1582,9 +1559,6 @@
     <t xml:space="preserve">Several family members and myself stayed in this hotel before a cruise. The hotel is in great location for that - it was tricky to find with GPS as some streets run one way but one me we figured out exit - piece of cake. Hotel was beautiful.  The beds were so comfortable. The lobby sitting area made a great place for our family of 15 to gather and eat pizza. We stayed 2 nights with the second night with the park and cruise rate. We could see ship from hotel. </t>
   </si>
   <si>
-    <t>napkat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r384385509-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1597,35 +1571,6 @@
     <t>My family and I stayed here due to we were in town for a family affair. The hotel staff was very nice and professional. Mrs. Angela at the front desk assisted us and we were able to check in at an earlier time. The hotel itself was extremely nice, clean, peaceful and a great place to lay our head. The decor in the room was very chic and upscale. Its a brand new establishment on the Westbank and the location is great. Guest had access to the computers in the lobby. The hotel has free wifi</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r383001357-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
-  </si>
-  <si>
-    <t>383001357</t>
-  </si>
-  <si>
-    <t>06/15/2016</t>
-  </si>
-  <si>
-    <t>Nice new hotel but the staff skipped training classes</t>
-  </si>
-  <si>
-    <t>This Marriott Courtyard is fairly new and everything about it is nice &amp; shiny and has all the modern furnishings and features.  The workout room was was really nice as well.  The physical hotel should be of no concern staying here.  The staff on the other hand, is in need of a serious overhaul or training.
-As I arrived at the hotel, another car pulled in just ahead of me with a disabled person (the driver's mother I'm guessing?).  We walked in the front door and she was ahead of me and I could tell she was anxious to get into her room with her mother.  We stood there together at the front desk for a about two minutes and no one came out.  She then went over to Bistro to see if some one could assist her.  They were waiting on one customer and proceeded to ignore her.  I called out to the area behind the front desk but nobody responded.  The other patron came back over to the front desk and now that probably 5 minutes had elapsed we still didn't see anybody.  Finally, a housekeeper who was passing through the lobby saw us and went into the back to let somebody know that we were waiting.  Finally the clerk came out and made no apologies and waited on us with a cold impersonal voice and demeanor.  When leaving for dinner and returning from dinner, there was no...This Marriott Courtyard is fairly new and everything about it is nice &amp; shiny and has all the modern furnishings and features.  The workout room was was really nice as well.  The physical hotel should be of no concern staying here.  The staff on the other hand, is in need of a serious overhaul or training.As I arrived at the hotel, another car pulled in just ahead of me with a disabled person (the driver's mother I'm guessing?).  We walked in the front door and she was ahead of me and I could tell she was anxious to get into her room with her mother.  We stood there together at the front desk for a about two minutes and no one came out.  She then went over to Bistro to see if some one could assist her.  They were waiting on one customer and proceeded to ignore her.  I called out to the area behind the front desk but nobody responded.  The other patron came back over to the front desk and now that probably 5 minutes had elapsed we still didn't see anybody.  Finally, a housekeeper who was passing through the lobby saw us and went into the back to let somebody know that we were waiting.  Finally the clerk came out and made no apologies and waited on us with a cold impersonal voice and demeanor.  When leaving for dinner and returning from dinner, there was no greeting or eye contact.The following morning as I was about to leave my room to check out, I realized that the check-in clerk had also failed to give me my free Starbucks card that Marriott Platinum members are entitled to.  I turned in my key and asked the morning clerk about this card.  She told me just to tell the Bistro clerk that I was was supposed to get my coffee.  I went straight over to the Bistro which was not busy and the lobby was almost empty.  The Bistro clerk acted like I asked for a three course meal and had to call the front desk and verify that I was staying there and have my folio reopened.  Hopefully they will improve this bad situation.MoreShow less</t>
-  </si>
-  <si>
-    <t>David M, General Manager at Courtyard New Orleans Westbank/Gretna, responded to this reviewResponded June 16, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 16, 2016</t>
-  </si>
-  <si>
-    <t>This Marriott Courtyard is fairly new and everything about it is nice &amp; shiny and has all the modern furnishings and features.  The workout room was was really nice as well.  The physical hotel should be of no concern staying here.  The staff on the other hand, is in need of a serious overhaul or training.
-As I arrived at the hotel, another car pulled in just ahead of me with a disabled person (the driver's mother I'm guessing?).  We walked in the front door and she was ahead of me and I could tell she was anxious to get into her room with her mother.  We stood there together at the front desk for a about two minutes and no one came out.  She then went over to Bistro to see if some one could assist her.  They were waiting on one customer and proceeded to ignore her.  I called out to the area behind the front desk but nobody responded.  The other patron came back over to the front desk and now that probably 5 minutes had elapsed we still didn't see anybody.  Finally, a housekeeper who was passing through the lobby saw us and went into the back to let somebody know that we were waiting.  Finally the clerk came out and made no apologies and waited on us with a cold impersonal voice and demeanor.  When leaving for dinner and returning from dinner, there was no...This Marriott Courtyard is fairly new and everything about it is nice &amp; shiny and has all the modern furnishings and features.  The workout room was was really nice as well.  The physical hotel should be of no concern staying here.  The staff on the other hand, is in need of a serious overhaul or training.As I arrived at the hotel, another car pulled in just ahead of me with a disabled person (the driver's mother I'm guessing?).  We walked in the front door and she was ahead of me and I could tell she was anxious to get into her room with her mother.  We stood there together at the front desk for a about two minutes and no one came out.  She then went over to Bistro to see if some one could assist her.  They were waiting on one customer and proceeded to ignore her.  I called out to the area behind the front desk but nobody responded.  The other patron came back over to the front desk and now that probably 5 minutes had elapsed we still didn't see anybody.  Finally, a housekeeper who was passing through the lobby saw us and went into the back to let somebody know that we were waiting.  Finally the clerk came out and made no apologies and waited on us with a cold impersonal voice and demeanor.  When leaving for dinner and returning from dinner, there was no greeting or eye contact.The following morning as I was about to leave my room to check out, I realized that the check-in clerk had also failed to give me my free Starbucks card that Marriott Platinum members are entitled to.  I turned in my key and asked the morning clerk about this card.  She told me just to tell the Bistro clerk that I was was supposed to get my coffee.  I went straight over to the Bistro which was not busy and the lobby was almost empty.  The Bistro clerk acted like I asked for a three course meal and had to call the front desk and verify that I was staying there and have my folio reopened.  Hopefully they will improve this bad situation.More</t>
-  </si>
-  <si>
-    <t>Yolanda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r380117386-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1648,9 +1593,6 @@
   </si>
   <si>
     <t>The hotel is a new property, so of course it is good choice. In my opinion, the front desk staff of any hotel should greet their guest. We were not greeted one time as we walked through the door. This is my only complaint. The hotel is in very close proximity from shopping and dining and minutes away from New Orleans.More</t>
-  </si>
-  <si>
-    <t>Lindsey B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r378865087-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -1667,7 +1609,7 @@
   <si>
     <t>Assistant GM was very helpful and friendly when checking in. He "upgraded" our room to a suite due to our Marriott Platinum status and received complimentary breakfast each day there. All staff we interacted with was absolutely wonderful. 
 Location of hotel was great and Uber to French Quarter was less than $10. 
-The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so 😉. The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). 
+The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so . The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). 
 All in all, I would return but make sure that they don't "upgrade" me...Assistant GM was very helpful and friendly when checking in. He "upgraded" our room to a suite due to our Marriott Platinum status and received complimentary breakfast each day there. All staff we interacted with was absolutely wonderful. Location of hotel was great and Uber to French Quarter was less than $10. The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so . The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). All in all, I would return but make sure that they don't "upgrade" me next to elevator or with joined rooms. MoreShow less</t>
   </si>
   <si>
@@ -1682,13 +1624,10 @@
   <si>
     <t>Assistant GM was very helpful and friendly when checking in. He "upgraded" our room to a suite due to our Marriott Platinum status and received complimentary breakfast each day there. All staff we interacted with was absolutely wonderful. 
 Location of hotel was great and Uber to French Quarter was less than $10. 
-The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so 😉. The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). 
+The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so . The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). 
 All in all, I would return but make sure that they don't "upgrade" me...Assistant GM was very helpful and friendly when checking in. He "upgraded" our room to a suite due to our Marriott Platinum status and received complimentary breakfast each day there. All staff we interacted with was absolutely wonderful. Location of hotel was great and Uber to French Quarter was less than $10. The reason for the 3 stars is the quality of rooms. Our "upgrade" was probably worse than our regular room. The upgraded room was next to the elevator and also shared a door with unit next door. The walls are thin so we heard both the elevator and the obnoxious woman next door yelling at her children at 7 am that they "they were ruining her vacation". I couldn't help but yell back that she was actually ruining mine. Not a way to wake up after a day eating and drinking in New Orleans. The room/suite was also awkward. We had at least 40 feet of space between the bed and window. It seemed like the room was meant for two queen beds but they ran out and put a weird king bed in. I had enough room to do a gymnastics routine, if I was actually talented enough to do so . The king bed was shorter than any bed I've slept in as my feet hung over the edge ( I'm 5'6). All in all, I would return but make sure that they don't "upgrade" me next to elevator or with joined rooms. More</t>
   </si>
   <si>
-    <t>kittyconni</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r378463911-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1707,9 +1646,6 @@
     <t>We brought our 14 year old twins to Jazz Fest this year. Hotel prices in New Orleans were CRAZY EXPENSIVE!! This hotel offered a discounted rate for Jazz Fest so we decided to stay here.The beds were very comfortable. The room and hotel were very clean and smelled great. There was a mini fridge and microwave in the room. The bathroom was very spacious and plenty of hot water for us. New Orleans is just a 5 minute drive over the bridge from this hotel. It's worth a stay if you are looking for a great hotel and an awesome value in the New Orleans area.More</t>
   </si>
   <si>
-    <t>ZaidaStan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r378458328-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1731,9 +1667,6 @@
     <t>First off, I'd like to say there is no friendlier or more helpful staff anywhere on this planet. They are all fabulous from the front desk clerks to the bistro staff to the housekeepers. My biggest criticism is the layout of the rooms. The desk is situated facing a wall, and the tv is hung on the same wall above the desk. If someone is trying to watch tv while another person is working at the desk, there is a head squarely in the middle the screen. The person at the desk has a tv right in his or her face. It's like sitting in the front row at the movie theater. When I asked if we could be moved to a different room, I was told that every room in the building was laid out the same. Very poor planning. Food at the bistro was good. The hotel is located across the bridge from all the action, but only a few minutes drive to the action. To me, that is a plus. Because of the room layout, I'd seriously have to think about whether or not I would return. More</t>
   </si>
   <si>
-    <t>PTwice</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r377089869-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1761,9 +1694,6 @@
     <t>The hotel was across the bridge from French Quarter but still close.My regular review;- AC worked great- Had plenty of hot water in the shower - WiFi worked great and was free- T-Mobile service was good in our room- Plenty of Power plugs to charge phones - Towels were of high quality- Sheets were clean and of high quality - Bed was very comfortable and of high quality - Room decor was modern - Room was clean - Hotel was new and in great condition - Parking was free - Breakfast - not free for us - Pool - looked great- Noise - quiet and niceA little extra:We took an uber to the french quarter in the evening and it was $10 on the way back at 1am the Uber was $20 due to surge pricing. Staff had a great recommendation of a local restaurant.I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Traveling-fever</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r376805857-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1782,9 +1712,6 @@
     <t>My family and I stayed at this hotel for 2 nights. Our room was big and spacious. The backdrop for the 2 queens were beautiful (should put in your other Courtyard Hotels). Just as the inside room are nice, the lobby is awesome. If you like to stay on the outskirts of town, this is the hotel for you. Only 4 miles from New Orleans. Also, quiet &amp; peaceful and surrounded by various seafood restaurants.My only issue are the towels. In our hotel room, there was only 3 sets of towels for 4 people. Upon requesting clean towels the next day, we received 3 sets of towels for 4 people.  Thanks Angela, for your assisting with the sofa....More</t>
   </si>
   <si>
-    <t>CatDaddy2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r374539946-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1833,9 +1760,6 @@
     <t>I have stayed here several times in past 3 months. This is not a fancy hotel with bells and whistles but have everything I need. Off the expressway, great location, great value for room rates, friendly staff and it's brand new.I will keep coming back hereMore</t>
   </si>
   <si>
-    <t>HeritageSoftail14843</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r373866907-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1854,9 +1778,6 @@
     <t>Stayed here for 1 night during a short-haul motorcycle trip.  Hotel opened in December 2015 and is still very new.  Staff was extremely friendly and knew the meaning of "customer service".  Mia from the front desk was especially helpful and went out of her way to accommodate our requests.  The hotel is motorcycle-friendly and parking is free (which is unusual for most places in NOLA).  They allowed us to park under the entrance overhang both to protect the bikes from weather and also keep them in high visibility.  We took a taxi back and forth to the French Quarter - it costs approximately $15-18 for 2 people including tip.  Well worth the expense to not fight traffic and pay to park in the French Quarter area, as well as not having to worry about drinking too much then driving.  Only criticism is that the front desk gave the taxi company our room #, which is probably not a smart business practice and could potentially be unsafe; a different method of tracking who they called a taxi for should be devised.  This hotel location is also very close to the cruise ship terminal.  Would be an ideal location for anyone starting their cruise from New Orleans.  Would definitely stay here again next time we're in town.More</t>
   </si>
   <si>
-    <t>Cheryl V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r372172542-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1881,9 +1802,6 @@
     <t>We had a business meeting in Harvey and decided to stay here at the Courtyard in Gretna.   Checking in, the desk clerk was super nice and even gave us a recommendation on a local resturant that was really good.  In the morning I requested a late check out since my husband was at a meeting.  Housekeeping came to clean our room and was she so nice and accommodating.  I would give this hotel 5 stars on just having a great staff alone.  So many hotels have staff that doesn't even look at you much less help out !!!  Thanks again for a great stay !  Was a quick drive to New Orleans, so will probably stay here again when we need to go to the city !  More</t>
   </si>
   <si>
-    <t>Jim R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r370267395-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1908,9 +1826,6 @@
     <t>While we wee concerned that the hotel is across the river, it was easy enough to get into New Orleans, and considering the cost savings and free parking, this hotel is a good deal.  It's relatively new, but they are still lacking books about the area in the room and there are no Ethernet cords to use.  The bathroom looked modern, but wasn't well done.  It's right off the highway, so ask for a room on the back side, it will be much quieter.  Finally, call ahead for directions, do not use MAPQUEST, it messes up every time to their front door.More</t>
   </si>
   <si>
-    <t>harangus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r361728244-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1926,9 +1841,6 @@
     <t>Nice and clean, everything inside is so invinting. Convinientlty located to access to downtown.The down part:Even if overall the hotel is quite,  one can still hear everything from steps to the TV from next rooms. Also no breakfast or at least complimentary coffee.</t>
   </si>
   <si>
-    <t>CA_Hiker49</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r361511669-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1947,9 +1859,6 @@
     <t>Enjoyed my stay here.  You feel welcomed upon entering:  the front desk staff all have sunny dispositions and can-do attitudes.  A special shout-out to Angela, who fielded a bunch of questions about breakfast and transportation options in a friendly and clear way.The hotel is very new (just a few months old) and well maintained.  The comfort and modern design of this hotel extends from the lobby to the guest rooms, and the beds are very comfortable.The hotel’s location may not be ideal for everyone, but worked well for me.  It’s located just 5-6 miles from downtown New Orleans; that said, you have to cross the Mississippi River to get there – so a car or taxi are your best bets.  There are bus options that I found through Google Maps, but getting to the right stops, especially if you’ve got luggage with you, is not easy – a good tryout for the Amazing Race!  &lt;Side note:  in my limited 3-day experience, the busses were very unpredictable, oftentimes arriving 20 minutes later than scheduled, or not at all!&gt;  There's a mall within walking distance of the hotel, but you definitely feel like you’re a way’s away from the city -- sometimes a welcome change of pace.  Though out of the way, you get a much nicer facility at a lower cost than you might otherwise find if you were staying in the Central Business District/French Quarter.More</t>
   </si>
   <si>
-    <t>Style T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r359920592-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1965,9 +1874,6 @@
     <t>there's no doubt this hotel is new to the Westbank area. I'm definitely impressed with its comtempoary design I love &amp; always stay at the courtyard in Metairie (another nearby city) from New Orleans needless to say I will be returning to this location also... It's also conveniently located to the interstate and the city also... A must stay...</t>
   </si>
   <si>
-    <t>DR_DAN2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r356545861-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -1983,9 +1889,6 @@
     <t xml:space="preserve">If you have been to new Orleans nothing seems easy to get to, but if you don't mind being out of chaos of DT, this hotel is a good alternative. A uber ride away, the hotel is new and the modern room design had this old traveler saying that's cool. My room had a semicircular sitting area, large wall mounted TV that could be adjusted toward the bed or the seating area. Refrigerator and microwave, large walk in shower, comfortable bed, space in general, Manu wood floors made this room a winner. No free breakfast, but there is a $10 breakfast available fixed to order. </t>
   </si>
   <si>
-    <t>128GreenG</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r355808596-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2001,9 +1904,6 @@
     <t>The best customer service that I've ever had at any Marriott property. My wife and I arrived on March 10, 2016 and departed on March 13, 2016. The young lady that checked us in was very professional. The night auditor greeted is every night and we even received great help from the engineer and housekeeping supervisor. The names escape me but the professionalism was extraordinary. My name is Garry Green and my wife is Cassandra and we're now on board with this property. FYI, we occupied Rooms 241 &amp; 242. Many blessings to this staff here.</t>
   </si>
   <si>
-    <t>Terri R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r350012708-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2031,9 +1931,6 @@
     <t>I would highly recommend this hotel because of the location.  I stayed here with my business partner during Mardi Gras time and the location of the hotel was perfect.  It is on the outskirts of New Orleans but close to stores, mall, restaurants, etc.  The spacious rooms were wonderful and the hotel staff was outstanding.  I really enjoyed the inside pool which is handicap accessible.  I thought that was outstanding for this property to have a lift for a disable person to actually get in the pool.  Great job Marriott!!!  I would definitely return to this hotel and recommend it to others who don't want to stay in the city.  The only downfall is the crazy traffic.  However, I expected that with the majority of the people staying on the outskirts of New Orleans anyway.  Overall, this is a great hotel and I will definitely be back.More</t>
   </si>
   <si>
-    <t>DSLuskey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r347627643-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2055,9 +1952,6 @@
     <t>I would highly recommend the "Marriott" Courtyard New Orleans Westbank/Gretna!!!  We were immediately greeted by Shezad AKA "Shazam!"  He was extremely friendly and went "above and beyond" to make our stay pleasurable!!!  We were quite impressed!These accommodations are definitely 10 Stars!  We will definitely make this our "go to" stop when returning to New Orleans!!!  Ask for Shezad AKA "Shazam!"This "Marriott" New Orleans Westbank/Gretna Hotel is right in the middle of where you need to be! 5 minutes to all of the sights and sounds of Bourbon Street, the French Quarter and downtown New Orleans.Key Amenities:High-Speed InternetFree High Speed InternetFitness CenterBusiness CenterBistro Restaurant (on-site)Star Bucks CoffeePoolOutdoor Fire pitParkingMeeting Event SpaceWhether you’re traveling for work, or taking a vacation from it, Courtyard helps you put more play in your stay!More</t>
   </si>
   <si>
-    <t>kndn1987</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r347196925-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2076,9 +1970,6 @@
     <t>My husband and I stayed here during Mardi Gras as we wanted to be close to the action but far enough away from all the noise. This was a quiet hotel and everything was new and clean.Cons:-No hot water during peak shower times. The hotel did compensate us one night which made up for the inconvenience and freezing my bum off in the shower-Requested a quiet room and was given one directly across from the elevator. They moved us about 4 rooms down and we could still hear the dinging-If you need a cab, make sure you have cash as all the cabs in Gretna don't take credit cardPros-Very friendly guest service, always pleasant and helpful-Good location, you can walk across the street to the mall/gas station/IHOP-New hotel so everything was clean and modern-Quiet!Overall it was a good stay.More</t>
   </si>
   <si>
-    <t>Rodger B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r343305210-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2103,9 +1994,6 @@
     <t>The room had that new feel. I didn't care for the bed. For being a new hotel there were several lights out in the building, including 3 in my room. Perhaps the engineer should have been doing his job instead of watching TV in the meeting room. The biggest problem was no hot water to shower with Sunday morning. This forced us to go back home to shower before we could finish our Sunday get away, they offered no compensation. Very disappointing. Front desk just told us we were the 6th room to complaint and she was going to have to tell someone. REALLY.....More</t>
   </si>
   <si>
-    <t>Onlyrealluv T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r336537503-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
   </si>
   <si>
@@ -2122,9 +2010,6 @@
   </si>
   <si>
     <t>December 2015</t>
-  </si>
-  <si>
-    <t>Joseph M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40198-d8542944-r334289445-Courtyard_New_Orleans_Westbank_Gretna-Gretna_Louisiana.html</t>
@@ -2647,44 +2532,44 @@
       <c r="A2" t="n">
         <v>64039</v>
       </c>
-      <c r="B2" t="n">
-        <v>21790</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2697,194 +2582,166 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64039</v>
       </c>
-      <c r="B3" t="n">
-        <v>21791</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>56</v>
-      </c>
-      <c r="X3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64039</v>
       </c>
-      <c r="B4" t="n">
-        <v>21792</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64039</v>
       </c>
-      <c r="B5" t="n">
-        <v>2711</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2895,61 +2752,53 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>68</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64039</v>
       </c>
-      <c r="B6" t="n">
-        <v>21793</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2960,61 +2809,53 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64039</v>
       </c>
-      <c r="B7" t="n">
-        <v>891</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3025,130 +2866,114 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64039</v>
       </c>
-      <c r="B8" t="n">
-        <v>21794</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64039</v>
       </c>
-      <c r="B9" t="n">
-        <v>21795</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3160,136 +2985,122 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64039</v>
       </c>
-      <c r="B10" t="n">
-        <v>21796</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" t="s">
+        <v>90</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64039</v>
       </c>
-      <c r="B11" t="n">
-        <v>21797</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
+        <v>48</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>3</v>
@@ -3297,115 +3108,119 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64039</v>
       </c>
-      <c r="B12" t="n">
-        <v>3712</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64039</v>
       </c>
-      <c r="B13" t="n">
-        <v>9666</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
         <v>55</v>
@@ -3419,252 +3234,244 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64039</v>
       </c>
-      <c r="B14" t="n">
-        <v>21798</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64039</v>
       </c>
-      <c r="B15" t="n">
-        <v>21799</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64039</v>
       </c>
-      <c r="B16" t="n">
-        <v>21800</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64039</v>
       </c>
-      <c r="B17" t="n">
-        <v>19164</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3675,246 +3482,240 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64039</v>
       </c>
-      <c r="B18" t="n">
-        <v>21801</v>
-      </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
         <v>55</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64039</v>
       </c>
-      <c r="B19" t="n">
-        <v>21802</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64039</v>
       </c>
-      <c r="B20" t="n">
-        <v>21803</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64039</v>
       </c>
-      <c r="B21" t="n">
-        <v>21804</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3928,259 +3729,233 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64039</v>
       </c>
-      <c r="B22" t="n">
-        <v>21805</v>
-      </c>
-      <c r="C22" t="s">
-        <v>191</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>198</v>
-      </c>
-      <c r="X22" t="s">
-        <v>199</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64039</v>
       </c>
-      <c r="B23" t="n">
-        <v>21806</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X23" t="s">
-        <v>208</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64039</v>
       </c>
-      <c r="B24" t="n">
-        <v>21807</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>216</v>
-      </c>
-      <c r="X24" t="s">
-        <v>217</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64039</v>
       </c>
-      <c r="B25" t="n">
-        <v>21808</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4191,128 +3966,110 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>226</v>
-      </c>
-      <c r="X25" t="s">
-        <v>227</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64039</v>
       </c>
-      <c r="B26" t="n">
-        <v>2518</v>
-      </c>
-      <c r="C26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64039</v>
       </c>
-      <c r="B27" t="n">
-        <v>14735</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4323,200 +4080,182 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>242</v>
-      </c>
-      <c r="X27" t="s">
-        <v>243</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64039</v>
       </c>
-      <c r="B28" t="n">
-        <v>21809</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64039</v>
       </c>
-      <c r="B29" t="n">
-        <v>20112</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>258</v>
-      </c>
-      <c r="X29" t="s">
-        <v>259</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64039</v>
       </c>
-      <c r="B30" t="n">
-        <v>15565</v>
-      </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4524,526 +4263,502 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>230</v>
+      </c>
+      <c r="X30" t="s">
+        <v>231</v>
+      </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64039</v>
       </c>
-      <c r="B31" t="n">
-        <v>21810</v>
-      </c>
-      <c r="C31" t="s">
-        <v>268</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>238</v>
+      </c>
+      <c r="X31" t="s">
+        <v>239</v>
+      </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64039</v>
       </c>
-      <c r="B32" t="n">
-        <v>1666</v>
-      </c>
-      <c r="C32" t="s">
-        <v>275</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
         <v>55</v>
       </c>
-      <c r="P32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s">
+        <v>247</v>
+      </c>
       <c r="Y32" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64039</v>
       </c>
-      <c r="B33" t="n">
-        <v>21811</v>
-      </c>
-      <c r="C33" t="s">
-        <v>282</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
         <v>55</v>
       </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64039</v>
       </c>
-      <c r="B34" t="n">
-        <v>21812</v>
-      </c>
-      <c r="C34" t="s">
-        <v>290</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O34" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64039</v>
       </c>
-      <c r="B35" t="n">
-        <v>21813</v>
-      </c>
-      <c r="C35" t="s">
-        <v>296</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="X35" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64039</v>
       </c>
-      <c r="B36" t="n">
-        <v>21814</v>
-      </c>
-      <c r="C36" t="s">
-        <v>306</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64039</v>
       </c>
-      <c r="B37" t="n">
-        <v>21815</v>
-      </c>
-      <c r="C37" t="s">
-        <v>314</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64039</v>
       </c>
-      <c r="B38" t="n">
-        <v>21816</v>
-      </c>
-      <c r="C38" t="s">
-        <v>322</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>171</v>
-      </c>
-      <c r="O38" t="s">
-        <v>110</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5051,64 +4766,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64039</v>
       </c>
-      <c r="B39" t="n">
-        <v>21817</v>
-      </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5116,165 +4829,170 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64039</v>
       </c>
-      <c r="B40" t="n">
-        <v>21818</v>
-      </c>
-      <c r="C40" t="s">
-        <v>335</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="O40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64039</v>
       </c>
-      <c r="B41" t="n">
-        <v>15537</v>
-      </c>
-      <c r="C41" t="s">
-        <v>342</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
-      </c>
-      <c r="J41" t="s"/>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
-      <c r="M41" t="s"/>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
+        <v>305</v>
+      </c>
+      <c r="J41" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64039</v>
       </c>
-      <c r="B42" t="n">
-        <v>21819</v>
-      </c>
-      <c r="C42" t="s">
-        <v>345</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5288,131 +5006,129 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64039</v>
       </c>
-      <c r="B43" t="n">
-        <v>21820</v>
-      </c>
-      <c r="C43" t="s">
-        <v>352</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="J43" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>88</v>
+      </c>
+      <c r="P43" t="n">
         <v>4</v>
       </c>
-      <c r="N43" t="s">
-        <v>312</v>
-      </c>
-      <c r="O43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>322</v>
+      </c>
+      <c r="X43" t="s">
+        <v>323</v>
+      </c>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64039</v>
       </c>
-      <c r="B44" t="n">
-        <v>21821</v>
-      </c>
-      <c r="C44" t="s">
-        <v>358</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="J44" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -5420,54 +5136,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64039</v>
       </c>
-      <c r="B45" t="n">
-        <v>19471</v>
-      </c>
-      <c r="C45" t="s">
-        <v>365</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>351</v>
+        <v>207</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5478,63 +5190,63 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>336</v>
+      </c>
+      <c r="X45" t="s">
+        <v>337</v>
+      </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64039</v>
       </c>
-      <c r="B46" t="n">
-        <v>21822</v>
-      </c>
-      <c r="C46" t="s">
-        <v>372</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5546,176 +5258,174 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64039</v>
       </c>
-      <c r="B47" t="n">
-        <v>21823</v>
-      </c>
-      <c r="C47" t="s">
-        <v>378</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="O47" t="s">
-        <v>77</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64039</v>
       </c>
-      <c r="B48" t="n">
-        <v>21824</v>
-      </c>
-      <c r="C48" t="s">
-        <v>384</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64039</v>
       </c>
-      <c r="B49" t="n">
-        <v>21825</v>
-      </c>
-      <c r="C49" t="s">
-        <v>391</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="J49" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5726,57 +5436,57 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64039</v>
       </c>
-      <c r="B50" t="n">
-        <v>21826</v>
-      </c>
-      <c r="C50" t="s">
-        <v>398</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5790,64 +5500,60 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64039</v>
       </c>
-      <c r="B51" t="n">
-        <v>21827</v>
-      </c>
-      <c r="C51" t="s">
-        <v>405</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="O51" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5855,112 +5561,114 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64039</v>
       </c>
-      <c r="B52" t="n">
-        <v>21828</v>
-      </c>
-      <c r="C52" t="s">
-        <v>412</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s">
         <v>55</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64039</v>
       </c>
-      <c r="B53" t="n">
-        <v>21829</v>
-      </c>
-      <c r="C53" t="s">
-        <v>419</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>369</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
@@ -5973,247 +5681,225 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64039</v>
       </c>
-      <c r="B54" t="n">
-        <v>900</v>
-      </c>
-      <c r="C54" t="s">
-        <v>425</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="O54" t="s">
         <v>55</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64039</v>
       </c>
-      <c r="B55" t="n">
-        <v>2434</v>
-      </c>
-      <c r="C55" t="s">
-        <v>431</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="O55" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64039</v>
       </c>
-      <c r="B56" t="n">
-        <v>21830</v>
-      </c>
-      <c r="C56" t="s">
-        <v>439</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="O56" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64039</v>
       </c>
-      <c r="B57" t="n">
-        <v>21831</v>
-      </c>
-      <c r="C57" t="s">
-        <v>446</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="J57" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="O57" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6227,180 +5913,168 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64039</v>
       </c>
-      <c r="B58" t="n">
-        <v>21832</v>
-      </c>
-      <c r="C58" t="s">
-        <v>451</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="J58" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64039</v>
       </c>
-      <c r="B59" t="n">
-        <v>21833</v>
-      </c>
-      <c r="C59" t="s">
-        <v>456</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="J59" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64039</v>
       </c>
-      <c r="B60" t="n">
-        <v>21834</v>
-      </c>
-      <c r="C60" t="s">
-        <v>462</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="J60" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="O60" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6414,121 +6088,103 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64039</v>
       </c>
-      <c r="B61" t="n">
-        <v>21835</v>
-      </c>
-      <c r="C61" t="s">
-        <v>468</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="J61" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="K61" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
-      <c r="N61" t="s">
-        <v>437</v>
-      </c>
-      <c r="O61" t="s">
-        <v>110</v>
-      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="s"/>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64039</v>
       </c>
-      <c r="B62" t="n">
-        <v>2239</v>
-      </c>
-      <c r="C62" t="s">
-        <v>473</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="J62" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6542,58 +6198,56 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64039</v>
       </c>
-      <c r="B63" t="n">
-        <v>5625</v>
-      </c>
-      <c r="C63" t="s">
-        <v>480</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="J63" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="K63" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O63" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
@@ -6607,115 +6261,111 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64039</v>
       </c>
-      <c r="B64" t="n">
-        <v>2568</v>
-      </c>
-      <c r="C64" t="s">
-        <v>486</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="J64" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="K64" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O64" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64039</v>
       </c>
-      <c r="B65" t="n">
-        <v>21836</v>
-      </c>
-      <c r="C65" t="s">
-        <v>492</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6729,182 +6379,168 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64039</v>
       </c>
-      <c r="B66" t="n">
-        <v>21837</v>
-      </c>
-      <c r="C66" t="s">
-        <v>498</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O66" t="s">
-        <v>77</v>
-      </c>
-      <c r="P66" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
       <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64039</v>
       </c>
-      <c r="B67" t="n">
-        <v>21838</v>
-      </c>
-      <c r="C67" t="s">
-        <v>504</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="J67" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="K67" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="L67" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O67" t="s">
-        <v>55</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
-      <c r="S67" t="n">
-        <v>4</v>
-      </c>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>4</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64039</v>
       </c>
-      <c r="B68" t="n">
-        <v>21839</v>
-      </c>
-      <c r="C68" t="s">
-        <v>510</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>463</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="J68" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O68" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6918,54 +6554,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64039</v>
       </c>
-      <c r="B69" t="n">
-        <v>21840</v>
-      </c>
-      <c r="C69" t="s">
-        <v>516</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="K69" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="L69" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="O69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -6985,54 +6617,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64039</v>
       </c>
-      <c r="B70" t="n">
-        <v>21790</v>
-      </c>
-      <c r="C70" t="s">
-        <v>39</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="J70" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="K70" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="L70" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7043,129 +6671,111 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>526</v>
-      </c>
-      <c r="X70" t="s">
-        <v>527</v>
-      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64039</v>
       </c>
-      <c r="B71" t="n">
-        <v>21841</v>
-      </c>
-      <c r="C71" t="s">
-        <v>529</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="K71" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="L71" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O71" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P71" t="s"/>
-      <c r="Q71" t="n">
-        <v>4</v>
-      </c>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>535</v>
-      </c>
-      <c r="X71" t="s">
-        <v>536</v>
-      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64039</v>
       </c>
-      <c r="B72" t="n">
-        <v>12903</v>
-      </c>
-      <c r="C72" t="s">
-        <v>538</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="J72" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="K72" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="L72" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="O72" t="s">
         <v>55</v>
@@ -7179,127 +6789,107 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
-        <v>545</v>
-      </c>
-      <c r="X72" t="s">
-        <v>546</v>
-      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64039</v>
       </c>
-      <c r="B73" t="n">
-        <v>21744</v>
-      </c>
-      <c r="C73" t="s">
-        <v>548</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="J73" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="K73" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="L73" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="O73" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
-      <c r="S73" t="n">
-        <v>5</v>
-      </c>
+      <c r="S73" t="s"/>
       <c r="T73" t="s"/>
-      <c r="U73" t="n">
-        <v>5</v>
-      </c>
+      <c r="U73" t="s"/>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>545</v>
-      </c>
-      <c r="X73" t="s">
-        <v>546</v>
-      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64039</v>
       </c>
-      <c r="B74" t="n">
-        <v>21842</v>
-      </c>
-      <c r="C74" t="s">
-        <v>555</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>556</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I74" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="J74" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="K74" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="L74" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O74" t="s">
         <v>55</v>
@@ -7313,465 +6903,429 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
-        <v>560</v>
-      </c>
-      <c r="X74" t="s">
-        <v>561</v>
-      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>562</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64039</v>
       </c>
-      <c r="B75" t="n">
-        <v>21843</v>
-      </c>
-      <c r="C75" t="s">
-        <v>563</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="J75" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="K75" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="L75" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="O75" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="s"/>
-      <c r="R75" t="n">
-        <v>5</v>
-      </c>
-      <c r="S75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s">
-        <v>570</v>
-      </c>
-      <c r="X75" t="s">
-        <v>571</v>
-      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>572</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64039</v>
       </c>
-      <c r="B76" t="n">
-        <v>21844</v>
-      </c>
-      <c r="C76" t="s">
-        <v>573</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>507</v>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="O76" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P76" t="s"/>
-      <c r="Q76" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q76" t="s"/>
       <c r="R76" t="s"/>
       <c r="S76" t="s"/>
       <c r="T76" t="s"/>
-      <c r="U76" t="n">
-        <v>4</v>
-      </c>
+      <c r="U76" t="s"/>
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s">
-        <v>570</v>
-      </c>
-      <c r="X76" t="s">
-        <v>571</v>
-      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64039</v>
       </c>
-      <c r="B77" t="n">
-        <v>19448</v>
-      </c>
-      <c r="C77" t="s">
-        <v>580</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="J77" t="s">
-        <v>583</v>
+        <v>505</v>
       </c>
       <c r="K77" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="L77" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>586</v>
+        <v>477</v>
       </c>
       <c r="O77" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P77" t="s"/>
-      <c r="Q77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
       <c r="R77" t="s"/>
-      <c r="S77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
       <c r="T77" t="s"/>
-      <c r="U77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s">
-        <v>587</v>
-      </c>
-      <c r="X77" t="s">
-        <v>588</v>
-      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>589</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64039</v>
       </c>
-      <c r="B78" t="n">
-        <v>19471</v>
-      </c>
-      <c r="C78" t="s">
-        <v>365</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>590</v>
+        <v>512</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I78" t="s">
-        <v>591</v>
+        <v>513</v>
       </c>
       <c r="J78" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="K78" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="L78" t="s">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="O78" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P78" t="s"/>
-      <c r="Q78" t="s"/>
-      <c r="R78" t="s"/>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
       <c r="S78" t="s"/>
       <c r="T78" t="s"/>
-      <c r="U78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
       <c r="V78" t="n">
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>594</v>
+        <v>517</v>
       </c>
       <c r="X78" t="s">
-        <v>595</v>
+        <v>518</v>
       </c>
       <c r="Y78" t="s">
-        <v>596</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64039</v>
       </c>
-      <c r="B79" t="n">
-        <v>21845</v>
-      </c>
-      <c r="C79" t="s">
-        <v>597</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I79" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="J79" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s">
-        <v>602</v>
+        <v>524</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="O79" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
       <c r="R79" t="s"/>
-      <c r="S79" t="n">
-        <v>5</v>
-      </c>
+      <c r="S79" t="s"/>
       <c r="T79" t="s"/>
-      <c r="U79" t="n">
-        <v>5</v>
-      </c>
+      <c r="U79" t="s"/>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="X79" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
       <c r="Y79" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64039</v>
       </c>
-      <c r="B80" t="n">
-        <v>21846</v>
-      </c>
-      <c r="C80" t="s">
-        <v>604</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I80" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="J80" t="s">
-        <v>607</v>
+        <v>531</v>
       </c>
       <c r="K80" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="L80" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="O80" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
       <c r="R80" t="s"/>
-      <c r="S80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
       <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>610</v>
+        <v>526</v>
       </c>
       <c r="X80" t="s">
-        <v>611</v>
+        <v>527</v>
       </c>
       <c r="Y80" t="s">
-        <v>612</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64039</v>
       </c>
-      <c r="B81" t="n">
-        <v>603</v>
-      </c>
-      <c r="C81" t="s">
-        <v>613</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>614</v>
+        <v>535</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>615</v>
+        <v>536</v>
       </c>
       <c r="J81" t="s">
-        <v>616</v>
+        <v>531</v>
       </c>
       <c r="K81" t="s">
-        <v>617</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="O81" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7783,188 +7337,188 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="X81" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="Y81" t="s">
-        <v>621</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64039</v>
       </c>
-      <c r="B82" t="n">
-        <v>8967</v>
-      </c>
-      <c r="C82" t="s">
-        <v>622</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>623</v>
+        <v>542</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I82" t="s">
-        <v>624</v>
+        <v>543</v>
       </c>
       <c r="J82" t="s">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="K82" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="L82" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O82" t="s">
-        <v>66</v>
-      </c>
-      <c r="P82" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
       <c r="Q82" t="s"/>
-      <c r="R82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
+      <c r="W82" t="s">
+        <v>548</v>
+      </c>
+      <c r="X82" t="s">
+        <v>549</v>
+      </c>
       <c r="Y82" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64039</v>
       </c>
-      <c r="B83" t="n">
-        <v>21847</v>
-      </c>
-      <c r="C83" t="s">
-        <v>628</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>629</v>
+        <v>551</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s">
-        <v>630</v>
+        <v>552</v>
       </c>
       <c r="J83" t="s">
-        <v>631</v>
+        <v>553</v>
       </c>
       <c r="K83" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="L83" t="s">
-        <v>633</v>
+        <v>555</v>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O83" t="s">
-        <v>66</v>
-      </c>
-      <c r="P83" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q83" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
       <c r="R83" t="s"/>
-      <c r="S83" t="n">
-        <v>5</v>
-      </c>
+      <c r="S83" t="s"/>
       <c r="T83" t="s"/>
       <c r="U83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
+      <c r="W83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X83" t="s">
+        <v>549</v>
+      </c>
       <c r="Y83" t="s">
-        <v>634</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64039</v>
       </c>
-      <c r="B84" t="n">
-        <v>21848</v>
-      </c>
-      <c r="C84" t="s">
-        <v>635</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I84" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="J84" t="s">
-        <v>638</v>
+        <v>559</v>
       </c>
       <c r="K84" t="s">
-        <v>639</v>
+        <v>560</v>
       </c>
       <c r="L84" t="s">
-        <v>640</v>
+        <v>561</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7975,57 +7529,57 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
+      <c r="W84" t="s">
+        <v>563</v>
+      </c>
+      <c r="X84" t="s">
+        <v>564</v>
+      </c>
       <c r="Y84" t="s">
-        <v>640</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64039</v>
       </c>
-      <c r="B85" t="n">
-        <v>21849</v>
-      </c>
-      <c r="C85" t="s">
-        <v>641</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="J85" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="K85" t="s">
-        <v>645</v>
+        <v>430</v>
       </c>
       <c r="L85" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="O85" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8036,189 +7590,183 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
+      <c r="W85" t="s">
+        <v>570</v>
+      </c>
+      <c r="X85" t="s">
+        <v>571</v>
+      </c>
       <c r="Y85" t="s">
-        <v>646</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64039</v>
       </c>
-      <c r="B86" t="n">
-        <v>21850</v>
-      </c>
-      <c r="C86" t="s">
-        <v>647</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>648</v>
+        <v>573</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="J86" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="K86" t="s">
-        <v>651</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="O86" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
       <c r="R86" t="s"/>
-      <c r="S86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
       <c r="T86" t="s"/>
-      <c r="U86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
+      <c r="W86" t="s">
+        <v>570</v>
+      </c>
+      <c r="X86" t="s">
+        <v>571</v>
+      </c>
       <c r="Y86" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64039</v>
       </c>
-      <c r="B87" t="n">
-        <v>21851</v>
-      </c>
-      <c r="C87" t="s">
-        <v>653</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>654</v>
+        <v>579</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I87" t="s">
-        <v>655</v>
+        <v>580</v>
       </c>
       <c r="J87" t="s">
-        <v>656</v>
+        <v>581</v>
       </c>
       <c r="K87" t="s">
-        <v>657</v>
+        <v>582</v>
       </c>
       <c r="L87" t="s">
-        <v>658</v>
+        <v>583</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>659</v>
+        <v>547</v>
       </c>
       <c r="O87" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="P87" t="s"/>
-      <c r="Q87" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q87" t="s"/>
       <c r="R87" t="s"/>
-      <c r="S87" t="n">
-        <v>4</v>
-      </c>
+      <c r="S87" t="s"/>
       <c r="T87" t="s"/>
-      <c r="U87" t="n">
-        <v>4</v>
-      </c>
+      <c r="U87" t="s"/>
       <c r="V87" t="n">
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>660</v>
+        <v>584</v>
       </c>
       <c r="X87" t="s">
-        <v>661</v>
+        <v>585</v>
       </c>
       <c r="Y87" t="s">
-        <v>662</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64039</v>
       </c>
-      <c r="B88" t="n">
-        <v>21852</v>
-      </c>
-      <c r="C88" t="s">
-        <v>663</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>664</v>
+        <v>587</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>665</v>
+        <v>588</v>
       </c>
       <c r="J88" t="s">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="K88" t="s">
-        <v>667</v>
+        <v>590</v>
       </c>
       <c r="L88" t="s">
-        <v>668</v>
+        <v>591</v>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>669</v>
+        <v>547</v>
       </c>
       <c r="O88" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8229,193 +7777,177 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
+      <c r="W88" t="s">
+        <v>592</v>
+      </c>
+      <c r="X88" t="s">
+        <v>593</v>
+      </c>
       <c r="Y88" t="s">
-        <v>670</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64039</v>
       </c>
-      <c r="B89" t="n">
-        <v>21853</v>
-      </c>
-      <c r="C89" t="s">
-        <v>671</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I89" t="s">
-        <v>673</v>
+        <v>596</v>
       </c>
       <c r="J89" t="s">
-        <v>674</v>
+        <v>597</v>
       </c>
       <c r="K89" t="s">
-        <v>675</v>
+        <v>598</v>
       </c>
       <c r="L89" t="s">
-        <v>676</v>
+        <v>599</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="O89" t="s">
-        <v>55</v>
-      </c>
-      <c r="P89" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
-      <c r="R89" t="n">
-        <v>4</v>
-      </c>
+      <c r="R89" t="s"/>
       <c r="S89" t="s"/>
       <c r="T89" t="s"/>
-      <c r="U89" t="n">
-        <v>5</v>
-      </c>
+      <c r="U89" t="s"/>
       <c r="V89" t="n">
         <v>0</v>
       </c>
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>677</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64039</v>
       </c>
-      <c r="B90" t="n">
-        <v>21854</v>
-      </c>
-      <c r="C90" t="s">
-        <v>678</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I90" t="s">
-        <v>680</v>
+        <v>601</v>
       </c>
       <c r="J90" t="s">
-        <v>681</v>
+        <v>602</v>
       </c>
       <c r="K90" t="s">
-        <v>682</v>
+        <v>603</v>
       </c>
       <c r="L90" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
       <c r="M90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="O90" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="s"/>
       <c r="R90" t="s"/>
-      <c r="S90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
       <c r="T90" t="s"/>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s">
-        <v>684</v>
-      </c>
-      <c r="X90" t="s">
-        <v>685</v>
-      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>686</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>64039</v>
       </c>
-      <c r="B91" t="n">
-        <v>21855</v>
-      </c>
-      <c r="C91" t="s">
-        <v>687</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I91" t="s">
-        <v>689</v>
+        <v>607</v>
       </c>
       <c r="J91" t="s">
-        <v>690</v>
+        <v>608</v>
       </c>
       <c r="K91" t="s">
-        <v>691</v>
+        <v>609</v>
       </c>
       <c r="L91" t="s">
-        <v>692</v>
+        <v>610</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>693</v>
+        <v>562</v>
       </c>
       <c r="O91" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8429,78 +7961,497 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>692</v>
+        <v>610</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64039</v>
       </c>
-      <c r="B92" t="n">
-        <v>14254</v>
-      </c>
-      <c r="C92" t="s">
-        <v>694</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>695</v>
+        <v>611</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I92" t="s">
-        <v>696</v>
+        <v>612</v>
       </c>
       <c r="J92" t="s">
-        <v>697</v>
+        <v>613</v>
       </c>
       <c r="K92" t="s">
-        <v>698</v>
+        <v>614</v>
       </c>
       <c r="L92" t="s">
-        <v>699</v>
+        <v>615</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>693</v>
+        <v>562</v>
       </c>
       <c r="O92" t="s">
-        <v>77</v>
-      </c>
-      <c r="P92" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
       <c r="R92" t="s"/>
       <c r="S92" t="s"/>
       <c r="T92" t="s"/>
-      <c r="U92" t="n">
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
+        <v>616</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" t="s">
+        <v>617</v>
+      </c>
+      <c r="J93" t="s">
+        <v>618</v>
+      </c>
+      <c r="K93" t="s">
+        <v>619</v>
+      </c>
+      <c r="L93" t="s">
+        <v>620</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>562</v>
+      </c>
+      <c r="O93" t="s">
+        <v>55</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
+        <v>621</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s">
+        <v>622</v>
+      </c>
+      <c r="J94" t="s">
+        <v>623</v>
+      </c>
+      <c r="K94" t="s">
+        <v>624</v>
+      </c>
+      <c r="L94" t="s">
+        <v>625</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>626</v>
+      </c>
+      <c r="O94" t="s">
+        <v>80</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>627</v>
+      </c>
+      <c r="X94" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s">
+        <v>630</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s">
+        <v>631</v>
+      </c>
+      <c r="J95" t="s">
+        <v>632</v>
+      </c>
+      <c r="K95" t="s">
+        <v>633</v>
+      </c>
+      <c r="L95" t="s">
+        <v>634</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>635</v>
+      </c>
+      <c r="O95" t="s">
+        <v>48</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s">
+        <v>637</v>
+      </c>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+      <c r="I96" t="s">
+        <v>638</v>
+      </c>
+      <c r="J96" t="s">
+        <v>639</v>
+      </c>
+      <c r="K96" t="s">
+        <v>640</v>
+      </c>
+      <c r="L96" t="s">
+        <v>641</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>635</v>
+      </c>
+      <c r="O96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" t="s">
+        <v>643</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s">
+        <v>644</v>
+      </c>
+      <c r="J97" t="s">
+        <v>645</v>
+      </c>
+      <c r="K97" t="s">
+        <v>646</v>
+      </c>
+      <c r="L97" t="s">
+        <v>647</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>626</v>
+      </c>
+      <c r="O97" t="s">
+        <v>55</v>
+      </c>
+      <c r="P97" t="n">
         <v>3</v>
       </c>
-      <c r="V92" t="n">
-        <v>0</v>
-      </c>
-      <c r="W92" t="s">
-        <v>700</v>
-      </c>
-      <c r="X92" t="s">
-        <v>701</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>702</v>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>648</v>
+      </c>
+      <c r="X97" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s">
+        <v>651</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s">
+        <v>42</v>
+      </c>
+      <c r="I98" t="s">
+        <v>652</v>
+      </c>
+      <c r="J98" t="s">
+        <v>653</v>
+      </c>
+      <c r="K98" t="s">
+        <v>654</v>
+      </c>
+      <c r="L98" t="s">
+        <v>655</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>656</v>
+      </c>
+      <c r="O98" t="s">
+        <v>55</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64039</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
+        <v>657</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s">
+        <v>658</v>
+      </c>
+      <c r="J99" t="s">
+        <v>659</v>
+      </c>
+      <c r="K99" t="s">
+        <v>660</v>
+      </c>
+      <c r="L99" t="s">
+        <v>661</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>656</v>
+      </c>
+      <c r="O99" t="s">
+        <v>55</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>662</v>
+      </c>
+      <c r="X99" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
